--- a/prototypes/creates/crear defense.xlsx
+++ b/prototypes/creates/crear defense.xlsx
@@ -69,9 +69,6 @@
     <t xml:space="preserve"> },{ type = "acid", decrese = </t>
   </si>
   <si>
-    <t xml:space="preserve">} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = </t>
-  </si>
-  <si>
     <t xml:space="preserve">, height = </t>
   </si>
   <si>
@@ -796,6 +793,9 @@
   </si>
   <si>
     <t>Cursed armor - Level 110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = </t>
   </si>
 </sst>
 </file>
@@ -1150,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A112"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A112" sqref="A3:A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,7 +1226,7 @@
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
       <c r="AB1" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
@@ -1236,7 +1236,7 @@
       <c r="AG1" s="6"/>
       <c r="AH1" s="6"/>
       <c r="AJ1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK1" s="6"/>
       <c r="AL1" s="6"/>
@@ -1285,70 +1285,70 @@
         <v>6</v>
       </c>
       <c r="AJ2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AL2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="AP2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS2" t="s">
         <v>36</v>
       </c>
-      <c r="AQ2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>37</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>38</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>39</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>40</v>
       </c>
       <c r="AW2" t="s">
         <v>10</v>
       </c>
       <c r="AX2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AY2" t="s">
         <v>7</v>
       </c>
       <c r="AZ2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB2" t="s">
         <v>144</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>145</v>
       </c>
       <c r="BC2" t="s">
         <v>12</v>
       </c>
       <c r="BD2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BH2" t="s">
         <v>146</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>147</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(C3,D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3,P3,Q3,R3,S3,T3,U3,V3,W3,X3,Y3,Z3,AA3,AB3,AC3,AD3,AE3,AF3,AG3,AH3,AI3,AJ3,AK3,AL3,AM3)</f>
-        <v>{ type = "armor", name = "cursed-armor-1", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-1.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 0.13, percent = 0.77 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0, percent = 0 },{ type = "acid", decrese = 0, percent = 0} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 2, height = 2}},</v>
+        <v>{ type = "armor", name = "cursed-armor-1", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-1.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 0.13, percent = 0.77 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0, percent = 0 },{ type = "acid", decrese = 0, percent = 0} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 2, height = 2}},</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="5">
         <v>0.13</v>
@@ -1447,19 +1447,19 @@
         <v>0</v>
       </c>
       <c r="AI3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK3" t="s">
         <v>17</v>
       </c>
-      <c r="AJ3" s="2">
-        <v>2</v>
-      </c>
-      <c r="AK3" t="s">
+      <c r="AL3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AM3" t="s">
         <v>18</v>
-      </c>
-      <c r="AL3" s="2">
-        <v>2</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>19</v>
       </c>
       <c r="AP3">
         <v>1</v>
@@ -1515,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="BK3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BL3" t="str">
         <f>CONCATENATE(D3," = ",BK3)</f>
@@ -1525,25 +1525,25 @@
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A67" si="0">CONCATENATE(C4,D4,E4,F4,G4,H4,I4,J4,K4,L4,M4,N4,O4,P4,Q4,R4,S4,T4,U4,V4,W4,X4,Y4,Z4,AA4,AB4,AC4,AD4,AE4,AF4,AG4,AH4,AI4,AJ4,AK4,AL4,AM4)</f>
-        <v>{ type = "armor", name = "cursed-armor-2", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-2.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 0.26, percent = 1.54 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0, percent = 0 },{ type = "acid", decrese = 0, percent = 0} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 2, height = 2}},</v>
+        <v>{ type = "armor", name = "cursed-armor-2", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-2.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 0.26, percent = 1.54 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0, percent = 0 },{ type = "acid", decrese = 0, percent = 0} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 2, height = 2}},</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="5">
         <v>0.26</v>
@@ -1627,19 +1627,19 @@
         <v>0</v>
       </c>
       <c r="AI4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK4" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AK4" t="s">
+      <c r="AL4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AM4" t="s">
         <v>18</v>
-      </c>
-      <c r="AL4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>19</v>
       </c>
       <c r="AP4">
         <f>AP3+1</f>
@@ -1706,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="BK4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BL4" t="str">
         <f t="shared" ref="BL4:BL5" si="1">CONCATENATE(D4," = ",BK4)</f>
@@ -1716,25 +1716,25 @@
     <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-3", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-3.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 0.39, percent = 2.31 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0, percent = 0 },{ type = "acid", decrese = 0, percent = 0} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 2, height = 2}},</v>
+        <v>{ type = "armor", name = "cursed-armor-3", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-3.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 0.39, percent = 2.31 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0, percent = 0 },{ type = "acid", decrese = 0, percent = 0} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 2, height = 2}},</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="5">
         <v>0.39</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="AI5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK5" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" s="2">
-        <v>2</v>
-      </c>
-      <c r="AK5" t="s">
+      <c r="AL5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AM5" t="s">
         <v>18</v>
-      </c>
-      <c r="AL5" s="2">
-        <v>2</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>19</v>
       </c>
       <c r="AP5">
         <f t="shared" ref="AP5:AP68" si="2">AP4+1</f>
@@ -1897,7 +1897,7 @@
         <v>2</v>
       </c>
       <c r="BK5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BL5" t="str">
         <f t="shared" si="1"/>
@@ -1907,25 +1907,25 @@
     <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-4", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-4.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 0.52, percent = 3.08 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0, percent = 0 },{ type = "acid", decrese = 0, percent = 0} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 2, height = 2}},</v>
+        <v>{ type = "armor", name = "cursed-armor-4", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-4.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 0.52, percent = 3.08 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0, percent = 0 },{ type = "acid", decrese = 0, percent = 0} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 2, height = 2}},</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="5">
         <v>0.52</v>
@@ -2009,19 +2009,19 @@
         <v>0</v>
       </c>
       <c r="AI6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK6" t="s">
         <v>17</v>
       </c>
-      <c r="AJ6" s="2">
-        <v>2</v>
-      </c>
-      <c r="AK6" t="s">
+      <c r="AL6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AM6" t="s">
         <v>18</v>
-      </c>
-      <c r="AL6" s="2">
-        <v>2</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>19</v>
       </c>
       <c r="AP6">
         <f t="shared" si="2"/>
@@ -2088,7 +2088,7 @@
         <v>2</v>
       </c>
       <c r="BK6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BL6" t="str">
         <f t="shared" ref="BL6:BL69" si="8">CONCATENATE(D6," = ",BK6)</f>
@@ -2098,25 +2098,25 @@
     <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-5", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-5.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 0.65, percent = 3.85 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0, percent = 0 },{ type = "acid", decrese = 0, percent = 0} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 2, height = 2}},</v>
+        <v>{ type = "armor", name = "cursed-armor-5", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-5.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 0.65, percent = 3.85 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0, percent = 0 },{ type = "acid", decrese = 0, percent = 0} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 2, height = 2}},</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="5">
         <v>0.65</v>
@@ -2200,19 +2200,19 @@
         <v>0</v>
       </c>
       <c r="AI7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK7" t="s">
         <v>17</v>
       </c>
-      <c r="AJ7" s="2">
-        <v>2</v>
-      </c>
-      <c r="AK7" t="s">
+      <c r="AL7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AM7" t="s">
         <v>18</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>2</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>19</v>
       </c>
       <c r="AP7">
         <f t="shared" si="2"/>
@@ -2279,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="BK7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BL7" t="str">
         <f t="shared" si="8"/>
@@ -2289,25 +2289,25 @@
     <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-6", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-6.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 0.78, percent = 4.62 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0, percent = 0 },{ type = "acid", decrese = 0.14, percent = 0.8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 3, height = 3}},</v>
+        <v>{ type = "armor", name = "cursed-armor-6", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-6.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 0.78, percent = 4.62 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0, percent = 0 },{ type = "acid", decrese = 0.14, percent = 0.8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 3, height = 3}},</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="5">
         <v>0.78</v>
@@ -2391,19 +2391,19 @@
         <v>0.8</v>
       </c>
       <c r="AI8" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ8" s="2">
         <v>3</v>
       </c>
       <c r="AK8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL8" s="2">
         <v>3</v>
       </c>
       <c r="AM8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP8">
         <f t="shared" si="2"/>
@@ -2472,7 +2472,7 @@
         <v>3</v>
       </c>
       <c r="BK8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BL8" t="str">
         <f t="shared" si="8"/>
@@ -2482,25 +2482,25 @@
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-7", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-7.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 0.91, percent = 5.39 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0, percent = 0 },{ type = "acid", decrese = 0.28, percent = 1.6} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 3, height = 3}},</v>
+        <v>{ type = "armor", name = "cursed-armor-7", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-7.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 0.91, percent = 5.39 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0, percent = 0 },{ type = "acid", decrese = 0.28, percent = 1.6} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 3, height = 3}},</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F9">
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="5">
         <v>0.91</v>
@@ -2584,19 +2584,19 @@
         <v>1.6</v>
       </c>
       <c r="AI9" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ9" s="2">
         <v>3</v>
       </c>
       <c r="AK9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL9" s="2">
         <v>3</v>
       </c>
       <c r="AM9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP9">
         <f t="shared" si="2"/>
@@ -2665,7 +2665,7 @@
         <v>3</v>
       </c>
       <c r="BK9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL9" t="str">
         <f t="shared" si="8"/>
@@ -2675,25 +2675,25 @@
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-8", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-8.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 1.04, percent = 6.16 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0, percent = 0 },{ type = "acid", decrese = 0.42, percent = 2.4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 3, height = 3}},</v>
+        <v>{ type = "armor", name = "cursed-armor-8", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-8.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 1.04, percent = 6.16 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0, percent = 0 },{ type = "acid", decrese = 0.42, percent = 2.4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 3, height = 3}},</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="5">
         <v>1.04</v>
@@ -2777,19 +2777,19 @@
         <v>2.4</v>
       </c>
       <c r="AI10" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ10" s="2">
         <v>3</v>
       </c>
       <c r="AK10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL10" s="2">
         <v>3</v>
       </c>
       <c r="AM10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP10">
         <f t="shared" si="2"/>
@@ -2858,7 +2858,7 @@
         <v>3</v>
       </c>
       <c r="BK10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BL10" t="str">
         <f t="shared" si="8"/>
@@ -2868,25 +2868,25 @@
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-9", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-9.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 1.17, percent = 6.93 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0, percent = 0 },{ type = "acid", decrese = 0.56, percent = 3.2} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 3, height = 3}},</v>
+        <v>{ type = "armor", name = "cursed-armor-9", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-9.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 1.17, percent = 6.93 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0, percent = 0 },{ type = "acid", decrese = 0.56, percent = 3.2} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 3, height = 3}},</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="5">
         <v>1.17</v>
@@ -2970,19 +2970,19 @@
         <v>3.2</v>
       </c>
       <c r="AI11" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ11" s="2">
         <v>3</v>
       </c>
       <c r="AK11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL11" s="2">
         <v>3</v>
       </c>
       <c r="AM11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP11">
         <f t="shared" si="2"/>
@@ -3051,7 +3051,7 @@
         <v>3</v>
       </c>
       <c r="BK11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BL11" t="str">
         <f t="shared" si="8"/>
@@ -3061,25 +3061,25 @@
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-10", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-10.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 1.3, percent = 7.7 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0, percent = 0 },{ type = "acid", decrese = 0.7, percent = 4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 3, height = 3}},</v>
+        <v>{ type = "armor", name = "cursed-armor-10", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-10.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 1.3, percent = 7.7 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0, percent = 0 },{ type = "acid", decrese = 0.7, percent = 4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 3, height = 3}},</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="5">
         <v>1.3</v>
@@ -3163,19 +3163,19 @@
         <v>4</v>
       </c>
       <c r="AI12" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ12" s="2">
         <v>3</v>
       </c>
       <c r="AK12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL12" s="2">
         <v>3</v>
       </c>
       <c r="AM12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP12">
         <f t="shared" si="2"/>
@@ -3244,7 +3244,7 @@
         <v>3</v>
       </c>
       <c r="BK12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BL12" t="str">
         <f t="shared" si="8"/>
@@ -3254,25 +3254,25 @@
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-11", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-11.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 1.43, percent = 8.47 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0.15, percent = 0.85 },{ type = "acid", decrese = 0.84, percent = 4.8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 4, height = 4}},</v>
+        <v>{ type = "armor", name = "cursed-armor-11", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-11.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 1.43, percent = 8.47 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0.15, percent = 0.85 },{ type = "acid", decrese = 0.84, percent = 4.8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 4, height = 4}},</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13">
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" s="5">
         <v>1.43</v>
@@ -3356,19 +3356,19 @@
         <v>4.8</v>
       </c>
       <c r="AI13" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ13" s="2">
         <v>4</v>
       </c>
       <c r="AK13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL13" s="2">
         <v>4</v>
       </c>
       <c r="AM13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP13">
         <f t="shared" si="2"/>
@@ -3439,7 +3439,7 @@
         <v>4</v>
       </c>
       <c r="BK13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BL13" t="str">
         <f t="shared" si="8"/>
@@ -3449,25 +3449,25 @@
     <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-12", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-12.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 1.56, percent = 9.24 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0.3, percent = 1.7 },{ type = "acid", decrese = 0.98, percent = 5.6} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 4, height = 4}},</v>
+        <v>{ type = "armor", name = "cursed-armor-12", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-12.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 1.56, percent = 9.24 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0.3, percent = 1.7 },{ type = "acid", decrese = 0.98, percent = 5.6} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 4, height = 4}},</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F14">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="5">
         <v>1.56</v>
@@ -3551,19 +3551,19 @@
         <v>5.6</v>
       </c>
       <c r="AI14" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ14" s="2">
         <v>4</v>
       </c>
       <c r="AK14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL14" s="2">
         <v>4</v>
       </c>
       <c r="AM14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP14">
         <f t="shared" si="2"/>
@@ -3634,7 +3634,7 @@
         <v>4</v>
       </c>
       <c r="BK14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BL14" t="str">
         <f t="shared" si="8"/>
@@ -3644,25 +3644,25 @@
     <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-13", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-13.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 1.69, percent = 10.01 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0.45, percent = 2.55 },{ type = "acid", decrese = 1.12, percent = 6.4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 4, height = 4}},</v>
+        <v>{ type = "armor", name = "cursed-armor-13", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-13.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 1.69, percent = 10.01 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0.45, percent = 2.55 },{ type = "acid", decrese = 1.12, percent = 6.4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 4, height = 4}},</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F15">
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15" s="5">
         <v>1.69</v>
@@ -3746,19 +3746,19 @@
         <v>6.4</v>
       </c>
       <c r="AI15" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ15" s="2">
         <v>4</v>
       </c>
       <c r="AK15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL15" s="2">
         <v>4</v>
       </c>
       <c r="AM15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP15">
         <f t="shared" si="2"/>
@@ -3829,7 +3829,7 @@
         <v>4</v>
       </c>
       <c r="BK15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BL15" t="str">
         <f t="shared" si="8"/>
@@ -3839,25 +3839,25 @@
     <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-14", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-14.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 1.82, percent = 10.78 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0.6, percent = 3.4 },{ type = "acid", decrese = 1.26, percent = 7.2} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 4, height = 4}},</v>
+        <v>{ type = "armor", name = "cursed-armor-14", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-14.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 1.82, percent = 10.78 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0.6, percent = 3.4 },{ type = "acid", decrese = 1.26, percent = 7.2} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 4, height = 4}},</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F16">
         <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" s="5">
         <v>1.82</v>
@@ -3941,19 +3941,19 @@
         <v>7.2</v>
       </c>
       <c r="AI16" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ16" s="2">
         <v>4</v>
       </c>
       <c r="AK16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL16" s="2">
         <v>4</v>
       </c>
       <c r="AM16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP16">
         <f t="shared" si="2"/>
@@ -4024,7 +4024,7 @@
         <v>4</v>
       </c>
       <c r="BK16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BL16" t="str">
         <f t="shared" si="8"/>
@@ -4034,25 +4034,25 @@
     <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-15", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-15.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 1.95, percent = 11.55 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0.75, percent = 4.25 },{ type = "acid", decrese = 1.4, percent = 8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 4, height = 4}},</v>
+        <v>{ type = "armor", name = "cursed-armor-15", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-15.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 1.95, percent = 11.55 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0, percent = 0 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0.75, percent = 4.25 },{ type = "acid", decrese = 1.4, percent = 8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 4, height = 4}},</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F17">
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" s="5">
         <v>1.95</v>
@@ -4136,19 +4136,19 @@
         <v>8</v>
       </c>
       <c r="AI17" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ17" s="2">
         <v>4</v>
       </c>
       <c r="AK17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL17" s="2">
         <v>4</v>
       </c>
       <c r="AM17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP17">
         <f t="shared" si="2"/>
@@ -4219,7 +4219,7 @@
         <v>4</v>
       </c>
       <c r="BK17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BL17" t="str">
         <f t="shared" si="8"/>
@@ -4229,25 +4229,25 @@
     <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-16", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-16.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 2.08, percent = 12.32 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0.15, percent = 0.89 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0.9, percent = 5.1 },{ type = "acid", decrese = 1.54, percent = 8.8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 4, height = 4}},</v>
+        <v>{ type = "armor", name = "cursed-armor-16", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-16.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 2.08, percent = 12.32 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0.15, percent = 0.89 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 0.9, percent = 5.1 },{ type = "acid", decrese = 1.54, percent = 8.8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 4, height = 4}},</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F18">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18" s="5">
         <v>2.08</v>
@@ -4331,19 +4331,19 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="AI18" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ18" s="2">
         <v>4</v>
       </c>
       <c r="AK18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL18" s="2">
         <v>4</v>
       </c>
       <c r="AM18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP18">
         <f t="shared" si="2"/>
@@ -4416,7 +4416,7 @@
         <v>4</v>
       </c>
       <c r="BK18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BL18" t="str">
         <f t="shared" si="8"/>
@@ -4426,25 +4426,25 @@
     <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-17", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-17.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 2.21, percent = 13.09 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0.3, percent = 1.78 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 1.05, percent = 5.95 },{ type = "acid", decrese = 1.68, percent = 9.6} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 5, height = 5}},</v>
+        <v>{ type = "armor", name = "cursed-armor-17", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-17.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 2.21, percent = 13.09 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0.3, percent = 1.78 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 1.05, percent = 5.95 },{ type = "acid", decrese = 1.68, percent = 9.6} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 5, height = 5}},</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19">
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" s="5">
         <v>2.21</v>
@@ -4528,19 +4528,19 @@
         <v>9.6</v>
       </c>
       <c r="AI19" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ19" s="2">
         <v>5</v>
       </c>
       <c r="AK19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL19" s="2">
         <v>5</v>
       </c>
       <c r="AM19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP19">
         <f t="shared" si="2"/>
@@ -4613,7 +4613,7 @@
         <v>5</v>
       </c>
       <c r="BK19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BL19" t="str">
         <f t="shared" si="8"/>
@@ -4623,25 +4623,25 @@
     <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-18", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-18.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 2.34, percent = 13.86 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0.45, percent = 2.67 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 1.2, percent = 6.8 },{ type = "acid", decrese = 1.82, percent = 10.4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 5, height = 5}},</v>
+        <v>{ type = "armor", name = "cursed-armor-18", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-18.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 2.34, percent = 13.86 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0.45, percent = 2.67 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 1.2, percent = 6.8 },{ type = "acid", decrese = 1.82, percent = 10.4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 5, height = 5}},</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20">
         <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" s="5">
         <v>2.34</v>
@@ -4725,19 +4725,19 @@
         <v>10.4</v>
       </c>
       <c r="AI20" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ20" s="2">
         <v>5</v>
       </c>
       <c r="AK20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL20" s="2">
         <v>5</v>
       </c>
       <c r="AM20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP20">
         <f t="shared" si="2"/>
@@ -4810,7 +4810,7 @@
         <v>5</v>
       </c>
       <c r="BK20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BL20" t="str">
         <f t="shared" si="8"/>
@@ -4820,25 +4820,25 @@
     <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-19", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-19.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 2.47, percent = 14.63 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0.6, percent = 3.56 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 1.35, percent = 7.65 },{ type = "acid", decrese = 1.96, percent = 11.2} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 5, height = 5}},</v>
+        <v>{ type = "armor", name = "cursed-armor-19", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-19.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 2.47, percent = 14.63 },{ type = "impact", decrese = 0, percent = 0 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0.6, percent = 3.56 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 1.35, percent = 7.65 },{ type = "acid", decrese = 1.96, percent = 11.2} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 5, height = 5}},</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F21">
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" s="5">
         <v>2.4700000000000002</v>
@@ -4922,19 +4922,19 @@
         <v>11.2</v>
       </c>
       <c r="AI21" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ21" s="2">
         <v>5</v>
       </c>
       <c r="AK21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL21" s="2">
         <v>5</v>
       </c>
       <c r="AM21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP21">
         <f t="shared" si="2"/>
@@ -5007,7 +5007,7 @@
         <v>5</v>
       </c>
       <c r="BK21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL21" t="str">
         <f t="shared" si="8"/>
@@ -5017,25 +5017,25 @@
     <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-20", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-20.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 2.6, percent = 15.4 },{ type = "impact", decrese = 0.16, percent = 0.94 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0.75, percent = 4.45 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 1.5, percent = 8.5 },{ type = "acid", decrese = 2.1, percent = 12} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 5, height = 5}},</v>
+        <v>{ type = "armor", name = "cursed-armor-20", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-20.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 2.6, percent = 15.4 },{ type = "impact", decrese = 0.16, percent = 0.94 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0.75, percent = 4.45 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 1.5, percent = 8.5 },{ type = "acid", decrese = 2.1, percent = 12} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 5, height = 5}},</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F22">
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22" s="5">
         <v>2.6</v>
@@ -5119,19 +5119,19 @@
         <v>12</v>
       </c>
       <c r="AI22" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ22" s="2">
         <v>5</v>
       </c>
       <c r="AK22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL22" s="2">
         <v>5</v>
       </c>
       <c r="AM22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP22">
         <f t="shared" si="2"/>
@@ -5206,7 +5206,7 @@
         <v>5</v>
       </c>
       <c r="BK22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BL22" t="str">
         <f t="shared" si="8"/>
@@ -5216,25 +5216,25 @@
     <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-21", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-21.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 2.73, percent = 16.17 },{ type = "impact", decrese = 0.32, percent = 1.88 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0.9, percent = 5.34 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 1.65, percent = 9.35 },{ type = "acid", decrese = 2.24, percent = 12.8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 5, height = 5}},</v>
+        <v>{ type = "armor", name = "cursed-armor-21", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-21.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 2.73, percent = 16.17 },{ type = "impact", decrese = 0.32, percent = 1.88 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 0.9, percent = 5.34 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 1.65, percent = 9.35 },{ type = "acid", decrese = 2.24, percent = 12.8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 5, height = 5}},</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F23">
         <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23" s="5">
         <v>2.73</v>
@@ -5318,19 +5318,19 @@
         <v>12.8</v>
       </c>
       <c r="AI23" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ23" s="2">
         <v>5</v>
       </c>
       <c r="AK23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL23" s="2">
         <v>5</v>
       </c>
       <c r="AM23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP23">
         <f t="shared" si="2"/>
@@ -5405,7 +5405,7 @@
         <v>5</v>
       </c>
       <c r="BK23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BL23" t="str">
         <f t="shared" si="8"/>
@@ -5415,25 +5415,25 @@
     <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-22", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-22.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 2.86, percent = 16.94 },{ type = "impact", decrese = 0.48, percent = 2.82 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 1.05, percent = 6.23 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 1.8, percent = 10.2 },{ type = "acid", decrese = 2.38, percent = 13.6} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 6, height = 6}},</v>
+        <v>{ type = "armor", name = "cursed-armor-22", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-22.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 2.86, percent = 16.94 },{ type = "impact", decrese = 0.48, percent = 2.82 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 1.05, percent = 6.23 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 1.8, percent = 10.2 },{ type = "acid", decrese = 2.38, percent = 13.6} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 6, height = 6}},</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F24">
         <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H24" s="5">
         <v>2.86</v>
@@ -5517,19 +5517,19 @@
         <v>13.6</v>
       </c>
       <c r="AI24" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ24" s="2">
         <v>6</v>
       </c>
       <c r="AK24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL24" s="2">
         <v>6</v>
       </c>
       <c r="AM24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP24">
         <f t="shared" si="2"/>
@@ -5604,7 +5604,7 @@
         <v>6</v>
       </c>
       <c r="BK24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BL24" t="str">
         <f t="shared" si="8"/>
@@ -5614,25 +5614,25 @@
     <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-23", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-23.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 2.99, percent = 17.71 },{ type = "impact", decrese = 0.64, percent = 3.76 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 1.2, percent = 7.12 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 1.95, percent = 11.05 },{ type = "acid", decrese = 2.52, percent = 14.4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 6, height = 6}},</v>
+        <v>{ type = "armor", name = "cursed-armor-23", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-23.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 2.99, percent = 17.71 },{ type = "impact", decrese = 0.64, percent = 3.76 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 1.2, percent = 7.12 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 1.95, percent = 11.05 },{ type = "acid", decrese = 2.52, percent = 14.4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 6, height = 6}},</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F25">
         <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H25" s="5">
         <v>2.99</v>
@@ -5716,19 +5716,19 @@
         <v>14.4</v>
       </c>
       <c r="AI25" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ25" s="2">
         <v>6</v>
       </c>
       <c r="AK25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL25" s="2">
         <v>6</v>
       </c>
       <c r="AM25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP25">
         <f t="shared" si="2"/>
@@ -5803,7 +5803,7 @@
         <v>6</v>
       </c>
       <c r="BK25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BL25" t="str">
         <f t="shared" si="8"/>
@@ -5813,25 +5813,25 @@
     <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-24", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-24.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 3.12, percent = 18.48 },{ type = "impact", decrese = 0.8, percent = 4.7 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 1.35, percent = 8.01 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 2.1, percent = 11.9 },{ type = "acid", decrese = 2.66, percent = 15.2} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 6, height = 6}},</v>
+        <v>{ type = "armor", name = "cursed-armor-24", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-24.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 3.12, percent = 18.48 },{ type = "impact", decrese = 0.8, percent = 4.7 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 1.35, percent = 8.01 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 2.1, percent = 11.9 },{ type = "acid", decrese = 2.66, percent = 15.2} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 6, height = 6}},</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F26">
         <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26" s="5">
         <v>3.12</v>
@@ -5915,19 +5915,19 @@
         <v>15.2</v>
       </c>
       <c r="AI26" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ26" s="2">
         <v>6</v>
       </c>
       <c r="AK26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL26" s="2">
         <v>6</v>
       </c>
       <c r="AM26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP26">
         <f t="shared" si="2"/>
@@ -6002,7 +6002,7 @@
         <v>6</v>
       </c>
       <c r="BK26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BL26" t="str">
         <f t="shared" si="8"/>
@@ -6012,25 +6012,25 @@
     <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-25", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-25.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 3.25, percent = 19.25 },{ type = "impact", decrese = 0.96, percent = 5.64 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 1.5, percent = 8.9 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 2.25, percent = 12.75 },{ type = "acid", decrese = 2.8, percent = 16} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 6, height = 6}},</v>
+        <v>{ type = "armor", name = "cursed-armor-25", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-25.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 3.25, percent = 19.25 },{ type = "impact", decrese = 0.96, percent = 5.64 },{ type = "poison", decrese = 0, percent = 0 },{ type = "explosion", decrese = 1.5, percent = 8.9 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 2.25, percent = 12.75 },{ type = "acid", decrese = 2.8, percent = 16} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 6, height = 6}},</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F27">
         <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27" s="5">
         <v>3.25</v>
@@ -6114,19 +6114,19 @@
         <v>16</v>
       </c>
       <c r="AI27" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ27" s="2">
         <v>6</v>
       </c>
       <c r="AK27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL27" s="2">
         <v>6</v>
       </c>
       <c r="AM27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP27">
         <f t="shared" si="2"/>
@@ -6201,7 +6201,7 @@
         <v>6</v>
       </c>
       <c r="BK27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BL27" t="str">
         <f t="shared" si="8"/>
@@ -6211,25 +6211,25 @@
     <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-26", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-26.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 3.38, percent = 20.02 },{ type = "impact", decrese = 1.12, percent = 6.58 },{ type = "poison", decrese = 0.17, percent = 1 },{ type = "explosion", decrese = 1.65, percent = 9.79 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 2.4, percent = 13.6 },{ type = "acid", decrese = 2.94, percent = 16.8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 6, height = 6}},</v>
+        <v>{ type = "armor", name = "cursed-armor-26", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-26.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 3.38, percent = 20.02 },{ type = "impact", decrese = 1.12, percent = 6.58 },{ type = "poison", decrese = 0.17, percent = 1 },{ type = "explosion", decrese = 1.65, percent = 9.79 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 2.4, percent = 13.6 },{ type = "acid", decrese = 2.94, percent = 16.8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 6, height = 6}},</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F28">
         <v>26</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H28" s="5">
         <v>3.38</v>
@@ -6313,19 +6313,19 @@
         <v>16.8</v>
       </c>
       <c r="AI28" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ28" s="2">
         <v>6</v>
       </c>
       <c r="AK28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL28" s="2">
         <v>6</v>
       </c>
       <c r="AM28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP28">
         <f t="shared" si="2"/>
@@ -6402,7 +6402,7 @@
         <v>6</v>
       </c>
       <c r="BK28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BL28" t="str">
         <f t="shared" si="8"/>
@@ -6412,25 +6412,25 @@
     <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-27", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-27.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 3.51, percent = 20.79 },{ type = "impact", decrese = 1.28, percent = 7.52 },{ type = "poison", decrese = 0.34, percent = 2 },{ type = "explosion", decrese = 1.8, percent = 10.68 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 2.55, percent = 14.45 },{ type = "acid", decrese = 3.08, percent = 17.6} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 6, height = 6}},</v>
+        <v>{ type = "armor", name = "cursed-armor-27", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-27.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 3.51, percent = 20.79 },{ type = "impact", decrese = 1.28, percent = 7.52 },{ type = "poison", decrese = 0.34, percent = 2 },{ type = "explosion", decrese = 1.8, percent = 10.68 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 2.55, percent = 14.45 },{ type = "acid", decrese = 3.08, percent = 17.6} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 6, height = 6}},</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F29">
         <v>27</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H29" s="5">
         <v>3.51</v>
@@ -6514,19 +6514,19 @@
         <v>17.600000000000001</v>
       </c>
       <c r="AI29" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ29" s="2">
         <v>6</v>
       </c>
       <c r="AK29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL29" s="2">
         <v>6</v>
       </c>
       <c r="AM29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP29">
         <f t="shared" si="2"/>
@@ -6603,7 +6603,7 @@
         <v>6</v>
       </c>
       <c r="BK29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BL29" t="str">
         <f t="shared" si="8"/>
@@ -6613,25 +6613,25 @@
     <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-28", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-28.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 3.64, percent = 21.56 },{ type = "impact", decrese = 1.44, percent = 8.46 },{ type = "poison", decrese = 0.51, percent = 3 },{ type = "explosion", decrese = 1.95, percent = 11.57 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 2.7, percent = 15.3 },{ type = "acid", decrese = 3.22, percent = 18.4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 7, height = 7}},</v>
+        <v>{ type = "armor", name = "cursed-armor-28", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-28.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 3.64, percent = 21.56 },{ type = "impact", decrese = 1.44, percent = 8.46 },{ type = "poison", decrese = 0.51, percent = 3 },{ type = "explosion", decrese = 1.95, percent = 11.57 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 2.7, percent = 15.3 },{ type = "acid", decrese = 3.22, percent = 18.4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 7, height = 7}},</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F30">
         <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30" s="5">
         <v>3.64</v>
@@ -6715,19 +6715,19 @@
         <v>18.399999999999999</v>
       </c>
       <c r="AI30" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ30" s="2">
         <v>7</v>
       </c>
       <c r="AK30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL30" s="2">
         <v>7</v>
       </c>
       <c r="AM30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP30">
         <f t="shared" si="2"/>
@@ -6804,7 +6804,7 @@
         <v>7</v>
       </c>
       <c r="BK30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BL30" t="str">
         <f t="shared" si="8"/>
@@ -6814,25 +6814,25 @@
     <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-29", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-29.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 3.77, percent = 22.33 },{ type = "impact", decrese = 1.6, percent = 9.4 },{ type = "poison", decrese = 0.68, percent = 4 },{ type = "explosion", decrese = 2.1, percent = 12.46 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 2.85, percent = 16.15 },{ type = "acid", decrese = 3.36, percent = 19.2} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 7, height = 7}},</v>
+        <v>{ type = "armor", name = "cursed-armor-29", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-29.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 3.77, percent = 22.33 },{ type = "impact", decrese = 1.6, percent = 9.4 },{ type = "poison", decrese = 0.68, percent = 4 },{ type = "explosion", decrese = 2.1, percent = 12.46 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 2.85, percent = 16.15 },{ type = "acid", decrese = 3.36, percent = 19.2} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 7, height = 7}},</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F31">
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31" s="5">
         <v>3.77</v>
@@ -6916,19 +6916,19 @@
         <v>19.2</v>
       </c>
       <c r="AI31" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ31" s="2">
         <v>7</v>
       </c>
       <c r="AK31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL31" s="2">
         <v>7</v>
       </c>
       <c r="AM31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP31">
         <f t="shared" si="2"/>
@@ -7005,7 +7005,7 @@
         <v>7</v>
       </c>
       <c r="BK31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BL31" t="str">
         <f t="shared" si="8"/>
@@ -7015,25 +7015,25 @@
     <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-30", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-30.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 3.9, percent = 23.1 },{ type = "impact", decrese = 1.76, percent = 10.34 },{ type = "poison", decrese = 0.85, percent = 5 },{ type = "explosion", decrese = 2.25, percent = 13.35 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 3, percent = 17 },{ type = "acid", decrese = 3.5, percent = 20} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 7, height = 7}},</v>
+        <v>{ type = "armor", name = "cursed-armor-30", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-30.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 3.9, percent = 23.1 },{ type = "impact", decrese = 1.76, percent = 10.34 },{ type = "poison", decrese = 0.85, percent = 5 },{ type = "explosion", decrese = 2.25, percent = 13.35 },{ type = "fire", decrese = 0, percent = 0 },{ type = "laser", decrese = 3, percent = 17 },{ type = "acid", decrese = 3.5, percent = 20} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 7, height = 7}},</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F32">
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32" s="5">
         <v>3.9</v>
@@ -7117,19 +7117,19 @@
         <v>20</v>
       </c>
       <c r="AI32" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ32" s="2">
         <v>7</v>
       </c>
       <c r="AK32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL32" s="2">
         <v>7</v>
       </c>
       <c r="AM32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP32">
         <f t="shared" si="2"/>
@@ -7206,7 +7206,7 @@
         <v>7</v>
       </c>
       <c r="BK32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BL32" t="str">
         <f t="shared" si="8"/>
@@ -7216,25 +7216,25 @@
     <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-31", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-31.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 4.03, percent = 23.87 },{ type = "impact", decrese = 1.92, percent = 11.28 },{ type = "poison", decrese = 1.02, percent = 6 },{ type = "explosion", decrese = 2.4, percent = 14.24 },{ type = "fire", decrese = 0.18, percent = 1.06 },{ type = "laser", decrese = 3.15, percent = 17.85 },{ type = "acid", decrese = 3.64, percent = 20.8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 7, height = 7}},</v>
+        <v>{ type = "armor", name = "cursed-armor-31", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-31.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 4.03, percent = 23.87 },{ type = "impact", decrese = 1.92, percent = 11.28 },{ type = "poison", decrese = 1.02, percent = 6 },{ type = "explosion", decrese = 2.4, percent = 14.24 },{ type = "fire", decrese = 0.18, percent = 1.06 },{ type = "laser", decrese = 3.15, percent = 17.85 },{ type = "acid", decrese = 3.64, percent = 20.8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 7, height = 7}},</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F33">
         <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H33" s="5">
         <v>4.03</v>
@@ -7318,19 +7318,19 @@
         <v>20.8</v>
       </c>
       <c r="AI33" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ33" s="2">
         <v>7</v>
       </c>
       <c r="AK33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL33" s="2">
         <v>7</v>
       </c>
       <c r="AM33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP33">
         <f t="shared" si="2"/>
@@ -7409,7 +7409,7 @@
         <v>7</v>
       </c>
       <c r="BK33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="BL33" t="str">
         <f t="shared" si="8"/>
@@ -7419,25 +7419,25 @@
     <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-32", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-32.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 4.16, percent = 24.64 },{ type = "impact", decrese = 2.08, percent = 12.22 },{ type = "poison", decrese = 1.19, percent = 7 },{ type = "explosion", decrese = 2.55, percent = 15.13 },{ type = "fire", decrese = 0.36, percent = 2.12 },{ type = "laser", decrese = 3.3, percent = 18.7 },{ type = "acid", decrese = 3.78, percent = 21.6} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 7, height = 7}},</v>
+        <v>{ type = "armor", name = "cursed-armor-32", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-32.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 4.16, percent = 24.64 },{ type = "impact", decrese = 2.08, percent = 12.22 },{ type = "poison", decrese = 1.19, percent = 7 },{ type = "explosion", decrese = 2.55, percent = 15.13 },{ type = "fire", decrese = 0.36, percent = 2.12 },{ type = "laser", decrese = 3.3, percent = 18.7 },{ type = "acid", decrese = 3.78, percent = 21.6} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 7, height = 7}},</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F34">
         <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34" s="5">
         <v>4.16</v>
@@ -7521,19 +7521,19 @@
         <v>21.6</v>
       </c>
       <c r="AI34" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ34" s="2">
         <v>7</v>
       </c>
       <c r="AK34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL34" s="2">
         <v>7</v>
       </c>
       <c r="AM34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP34">
         <f t="shared" si="2"/>
@@ -7612,7 +7612,7 @@
         <v>7</v>
       </c>
       <c r="BK34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BL34" t="str">
         <f t="shared" si="8"/>
@@ -7622,25 +7622,25 @@
     <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-33", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-33.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 4.29, percent = 25.41 },{ type = "impact", decrese = 2.24, percent = 13.16 },{ type = "poison", decrese = 1.36, percent = 8 },{ type = "explosion", decrese = 2.7, percent = 16.02 },{ type = "fire", decrese = 0.54, percent = 3.18 },{ type = "laser", decrese = 3.45, percent = 19.55 },{ type = "acid", decrese = 3.92, percent = 22.4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 8, height = 8}},</v>
+        <v>{ type = "armor", name = "cursed-armor-33", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-33.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 4.29, percent = 25.41 },{ type = "impact", decrese = 2.24, percent = 13.16 },{ type = "poison", decrese = 1.36, percent = 8 },{ type = "explosion", decrese = 2.7, percent = 16.02 },{ type = "fire", decrese = 0.54, percent = 3.18 },{ type = "laser", decrese = 3.45, percent = 19.55 },{ type = "acid", decrese = 3.92, percent = 22.4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 8, height = 8}},</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F35">
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35" s="5">
         <v>4.29</v>
@@ -7724,19 +7724,19 @@
         <v>22.4</v>
       </c>
       <c r="AI35" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ35" s="2">
         <v>8</v>
       </c>
       <c r="AK35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL35" s="2">
         <v>8</v>
       </c>
       <c r="AM35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP35">
         <f t="shared" si="2"/>
@@ -7815,7 +7815,7 @@
         <v>8</v>
       </c>
       <c r="BK35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BL35" t="str">
         <f t="shared" si="8"/>
@@ -7825,25 +7825,25 @@
     <row r="36" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-34", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-34.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 4.42, percent = 26.18 },{ type = "impact", decrese = 2.4, percent = 14.1 },{ type = "poison", decrese = 1.53, percent = 9 },{ type = "explosion", decrese = 2.85, percent = 16.91 },{ type = "fire", decrese = 0.72, percent = 4.24 },{ type = "laser", decrese = 3.6, percent = 20.4 },{ type = "acid", decrese = 4.06, percent = 23.2} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 8, height = 8}},</v>
+        <v>{ type = "armor", name = "cursed-armor-34", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-34.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 4.42, percent = 26.18 },{ type = "impact", decrese = 2.4, percent = 14.1 },{ type = "poison", decrese = 1.53, percent = 9 },{ type = "explosion", decrese = 2.85, percent = 16.91 },{ type = "fire", decrese = 0.72, percent = 4.24 },{ type = "laser", decrese = 3.6, percent = 20.4 },{ type = "acid", decrese = 4.06, percent = 23.2} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 8, height = 8}},</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F36">
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H36" s="5">
         <v>4.42</v>
@@ -7927,19 +7927,19 @@
         <v>23.2</v>
       </c>
       <c r="AI36" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ36" s="2">
         <v>8</v>
       </c>
       <c r="AK36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL36" s="2">
         <v>8</v>
       </c>
       <c r="AM36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP36">
         <f t="shared" si="2"/>
@@ -8018,7 +8018,7 @@
         <v>8</v>
       </c>
       <c r="BK36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BL36" t="str">
         <f t="shared" si="8"/>
@@ -8028,25 +8028,25 @@
     <row r="37" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-35", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-35.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 4.55, percent = 26.95 },{ type = "impact", decrese = 2.56, percent = 15.04 },{ type = "poison", decrese = 1.7, percent = 10 },{ type = "explosion", decrese = 3, percent = 17.8 },{ type = "fire", decrese = 0.9, percent = 5.3 },{ type = "laser", decrese = 3.75, percent = 21.25 },{ type = "acid", decrese = 4.2, percent = 24} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 8, height = 8}},</v>
+        <v>{ type = "armor", name = "cursed-armor-35", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-35.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 4.55, percent = 26.95 },{ type = "impact", decrese = 2.56, percent = 15.04 },{ type = "poison", decrese = 1.7, percent = 10 },{ type = "explosion", decrese = 3, percent = 17.8 },{ type = "fire", decrese = 0.9, percent = 5.3 },{ type = "laser", decrese = 3.75, percent = 21.25 },{ type = "acid", decrese = 4.2, percent = 24} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 8, height = 8}},</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F37">
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H37" s="5">
         <v>4.55</v>
@@ -8130,19 +8130,19 @@
         <v>24</v>
       </c>
       <c r="AI37" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ37" s="2">
         <v>8</v>
       </c>
       <c r="AK37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL37" s="2">
         <v>8</v>
       </c>
       <c r="AM37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP37">
         <f t="shared" si="2"/>
@@ -8221,7 +8221,7 @@
         <v>8</v>
       </c>
       <c r="BK37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BL37" t="str">
         <f t="shared" si="8"/>
@@ -8231,25 +8231,25 @@
     <row r="38" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-36", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-36.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 4.68, percent = 27.72 },{ type = "impact", decrese = 2.72, percent = 15.98 },{ type = "poison", decrese = 1.87, percent = 11 },{ type = "explosion", decrese = 3.15, percent = 18.69 },{ type = "fire", decrese = 1.08, percent = 6.36 },{ type = "laser", decrese = 3.9, percent = 22.1 },{ type = "acid", decrese = 4.34, percent = 24.8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 8, height = 8}},</v>
+        <v>{ type = "armor", name = "cursed-armor-36", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-36.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 4.68, percent = 27.72 },{ type = "impact", decrese = 2.72, percent = 15.98 },{ type = "poison", decrese = 1.87, percent = 11 },{ type = "explosion", decrese = 3.15, percent = 18.69 },{ type = "fire", decrese = 1.08, percent = 6.36 },{ type = "laser", decrese = 3.9, percent = 22.1 },{ type = "acid", decrese = 4.34, percent = 24.8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 8, height = 8}},</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F38">
         <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H38" s="5">
         <v>4.68</v>
@@ -8333,19 +8333,19 @@
         <v>24.8</v>
       </c>
       <c r="AI38" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ38" s="2">
         <v>8</v>
       </c>
       <c r="AK38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL38" s="2">
         <v>8</v>
       </c>
       <c r="AM38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP38">
         <f t="shared" si="2"/>
@@ -8424,7 +8424,7 @@
         <v>8</v>
       </c>
       <c r="BK38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BL38" t="str">
         <f t="shared" si="8"/>
@@ -8434,25 +8434,25 @@
     <row r="39" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-37", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-37.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 4.81, percent = 28.49 },{ type = "impact", decrese = 2.88, percent = 16.92 },{ type = "poison", decrese = 2.04, percent = 12 },{ type = "explosion", decrese = 3.3, percent = 19.58 },{ type = "fire", decrese = 1.26, percent = 7.42 },{ type = "laser", decrese = 4.05, percent = 22.95 },{ type = "acid", decrese = 4.48, percent = 25.6} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 8, height = 8}},</v>
+        <v>{ type = "armor", name = "cursed-armor-37", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-37.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 4.81, percent = 28.49 },{ type = "impact", decrese = 2.88, percent = 16.92 },{ type = "poison", decrese = 2.04, percent = 12 },{ type = "explosion", decrese = 3.3, percent = 19.58 },{ type = "fire", decrese = 1.26, percent = 7.42 },{ type = "laser", decrese = 4.05, percent = 22.95 },{ type = "acid", decrese = 4.48, percent = 25.6} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 8, height = 8}},</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F39">
         <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39" s="5">
         <v>4.8099999999999996</v>
@@ -8536,19 +8536,19 @@
         <v>25.6</v>
       </c>
       <c r="AI39" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ39" s="2">
         <v>8</v>
       </c>
       <c r="AK39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL39" s="2">
         <v>8</v>
       </c>
       <c r="AM39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP39">
         <f t="shared" si="2"/>
@@ -8627,7 +8627,7 @@
         <v>8</v>
       </c>
       <c r="BK39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BL39" t="str">
         <f t="shared" si="8"/>
@@ -8637,25 +8637,25 @@
     <row r="40" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-38", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-38.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 4.94, percent = 29.26 },{ type = "impact", decrese = 3.04, percent = 17.86 },{ type = "poison", decrese = 2.21, percent = 13 },{ type = "explosion", decrese = 3.45, percent = 20.47 },{ type = "fire", decrese = 1.44, percent = 8.48 },{ type = "laser", decrese = 4.2, percent = 23.8 },{ type = "acid", decrese = 4.62, percent = 26.4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 8, height = 8}},</v>
+        <v>{ type = "armor", name = "cursed-armor-38", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-38.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 4.94, percent = 29.26 },{ type = "impact", decrese = 3.04, percent = 17.86 },{ type = "poison", decrese = 2.21, percent = 13 },{ type = "explosion", decrese = 3.45, percent = 20.47 },{ type = "fire", decrese = 1.44, percent = 8.48 },{ type = "laser", decrese = 4.2, percent = 23.8 },{ type = "acid", decrese = 4.62, percent = 26.4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 8, height = 8}},</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F40">
         <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H40" s="5">
         <v>4.9400000000000004</v>
@@ -8739,19 +8739,19 @@
         <v>26.4</v>
       </c>
       <c r="AI40" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ40" s="2">
         <v>8</v>
       </c>
       <c r="AK40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL40" s="2">
         <v>8</v>
       </c>
       <c r="AM40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP40">
         <f t="shared" si="2"/>
@@ -8830,7 +8830,7 @@
         <v>8</v>
       </c>
       <c r="BK40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BL40" t="str">
         <f t="shared" si="8"/>
@@ -8840,25 +8840,25 @@
     <row r="41" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-39", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-39.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 5.07, percent = 30.03 },{ type = "impact", decrese = 3.2, percent = 18.8 },{ type = "poison", decrese = 2.38, percent = 14 },{ type = "explosion", decrese = 3.6, percent = 21.36 },{ type = "fire", decrese = 1.62, percent = 9.54 },{ type = "laser", decrese = 4.35, percent = 24.65 },{ type = "acid", decrese = 4.76, percent = 27.2} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 9, height = 9}},</v>
+        <v>{ type = "armor", name = "cursed-armor-39", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-39.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 5.07, percent = 30.03 },{ type = "impact", decrese = 3.2, percent = 18.8 },{ type = "poison", decrese = 2.38, percent = 14 },{ type = "explosion", decrese = 3.6, percent = 21.36 },{ type = "fire", decrese = 1.62, percent = 9.54 },{ type = "laser", decrese = 4.35, percent = 24.65 },{ type = "acid", decrese = 4.76, percent = 27.2} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 9, height = 9}},</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F41">
         <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H41" s="5">
         <v>5.07</v>
@@ -8942,19 +8942,19 @@
         <v>27.2</v>
       </c>
       <c r="AI41" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ41" s="2">
         <v>9</v>
       </c>
       <c r="AK41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL41" s="2">
         <v>9</v>
       </c>
       <c r="AM41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP41">
         <f t="shared" si="2"/>
@@ -9033,7 +9033,7 @@
         <v>9</v>
       </c>
       <c r="BK41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BL41" t="str">
         <f t="shared" si="8"/>
@@ -9043,25 +9043,25 @@
     <row r="42" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-40", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-40.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 5.2, percent = 30.8 },{ type = "impact", decrese = 3.36, percent = 19.74 },{ type = "poison", decrese = 2.55, percent = 15 },{ type = "explosion", decrese = 3.75, percent = 22.25 },{ type = "fire", decrese = 1.8, percent = 10.6 },{ type = "laser", decrese = 4.5, percent = 25.5 },{ type = "acid", decrese = 4.9, percent = 28} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 9, height = 9}},</v>
+        <v>{ type = "armor", name = "cursed-armor-40", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-40.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 5.2, percent = 30.8 },{ type = "impact", decrese = 3.36, percent = 19.74 },{ type = "poison", decrese = 2.55, percent = 15 },{ type = "explosion", decrese = 3.75, percent = 22.25 },{ type = "fire", decrese = 1.8, percent = 10.6 },{ type = "laser", decrese = 4.5, percent = 25.5 },{ type = "acid", decrese = 4.9, percent = 28} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 9, height = 9}},</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F42">
         <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H42" s="5">
         <v>5.2</v>
@@ -9145,19 +9145,19 @@
         <v>28</v>
       </c>
       <c r="AI42" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ42" s="2">
         <v>9</v>
       </c>
       <c r="AK42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL42" s="2">
         <v>9</v>
       </c>
       <c r="AM42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP42">
         <f t="shared" si="2"/>
@@ -9236,7 +9236,7 @@
         <v>9</v>
       </c>
       <c r="BK42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BL42" t="str">
         <f t="shared" si="8"/>
@@ -9246,25 +9246,25 @@
     <row r="43" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-41", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-41.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 5.33, percent = 31.57 },{ type = "impact", decrese = 3.52, percent = 20.68 },{ type = "poison", decrese = 2.72, percent = 16 },{ type = "explosion", decrese = 3.9, percent = 23.14 },{ type = "fire", decrese = 1.98, percent = 11.66 },{ type = "laser", decrese = 4.65, percent = 26.35 },{ type = "acid", decrese = 5.04, percent = 28.8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 9, height = 9}},</v>
+        <v>{ type = "armor", name = "cursed-armor-41", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-41.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 5.33, percent = 31.57 },{ type = "impact", decrese = 3.52, percent = 20.68 },{ type = "poison", decrese = 2.72, percent = 16 },{ type = "explosion", decrese = 3.9, percent = 23.14 },{ type = "fire", decrese = 1.98, percent = 11.66 },{ type = "laser", decrese = 4.65, percent = 26.35 },{ type = "acid", decrese = 5.04, percent = 28.8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 9, height = 9}},</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F43">
         <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H43" s="5">
         <v>5.33</v>
@@ -9348,19 +9348,19 @@
         <v>28.8</v>
       </c>
       <c r="AI43" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ43" s="2">
         <v>9</v>
       </c>
       <c r="AK43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL43" s="2">
         <v>9</v>
       </c>
       <c r="AM43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP43">
         <f t="shared" si="2"/>
@@ -9439,7 +9439,7 @@
         <v>9</v>
       </c>
       <c r="BK43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BL43" t="str">
         <f t="shared" si="8"/>
@@ -9449,25 +9449,25 @@
     <row r="44" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-42", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-42.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 5.46, percent = 32.34 },{ type = "impact", decrese = 3.68, percent = 21.62 },{ type = "poison", decrese = 2.89, percent = 17 },{ type = "explosion", decrese = 4.05, percent = 24.03 },{ type = "fire", decrese = 2.16, percent = 12.72 },{ type = "laser", decrese = 4.8, percent = 27.2 },{ type = "acid", decrese = 5.18, percent = 29.6} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 9, height = 9}},</v>
+        <v>{ type = "armor", name = "cursed-armor-42", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-42.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 5.46, percent = 32.34 },{ type = "impact", decrese = 3.68, percent = 21.62 },{ type = "poison", decrese = 2.89, percent = 17 },{ type = "explosion", decrese = 4.05, percent = 24.03 },{ type = "fire", decrese = 2.16, percent = 12.72 },{ type = "laser", decrese = 4.8, percent = 27.2 },{ type = "acid", decrese = 5.18, percent = 29.6} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 9, height = 9}},</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F44">
         <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44" s="5">
         <v>5.46</v>
@@ -9551,19 +9551,19 @@
         <v>29.6</v>
       </c>
       <c r="AI44" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ44" s="2">
         <v>9</v>
       </c>
       <c r="AK44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL44" s="2">
         <v>9</v>
       </c>
       <c r="AM44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP44">
         <f t="shared" si="2"/>
@@ -9642,7 +9642,7 @@
         <v>9</v>
       </c>
       <c r="BK44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BL44" t="str">
         <f t="shared" si="8"/>
@@ -9652,25 +9652,25 @@
     <row r="45" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-43", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-43.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 5.59, percent = 33.11 },{ type = "impact", decrese = 3.84, percent = 22.56 },{ type = "poison", decrese = 3.06, percent = 18 },{ type = "explosion", decrese = 4.2, percent = 24.92 },{ type = "fire", decrese = 2.34, percent = 13.78 },{ type = "laser", decrese = 4.95, percent = 28.05 },{ type = "acid", decrese = 5.32, percent = 30.4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 9, height = 9}},</v>
+        <v>{ type = "armor", name = "cursed-armor-43", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-43.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 5.59, percent = 33.11 },{ type = "impact", decrese = 3.84, percent = 22.56 },{ type = "poison", decrese = 3.06, percent = 18 },{ type = "explosion", decrese = 4.2, percent = 24.92 },{ type = "fire", decrese = 2.34, percent = 13.78 },{ type = "laser", decrese = 4.95, percent = 28.05 },{ type = "acid", decrese = 5.32, percent = 30.4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 9, height = 9}},</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F45">
         <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H45" s="5">
         <v>5.59</v>
@@ -9754,19 +9754,19 @@
         <v>30.4</v>
       </c>
       <c r="AI45" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ45" s="2">
         <v>9</v>
       </c>
       <c r="AK45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL45" s="2">
         <v>9</v>
       </c>
       <c r="AM45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP45">
         <f t="shared" si="2"/>
@@ -9845,7 +9845,7 @@
         <v>9</v>
       </c>
       <c r="BK45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BL45" t="str">
         <f t="shared" si="8"/>
@@ -9855,25 +9855,25 @@
     <row r="46" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-44", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-44.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 5.72, percent = 33.88 },{ type = "impact", decrese = 4, percent = 23.5 },{ type = "poison", decrese = 3.23, percent = 19 },{ type = "explosion", decrese = 4.35, percent = 25.81 },{ type = "fire", decrese = 2.52, percent = 14.84 },{ type = "laser", decrese = 5.1, percent = 28.9 },{ type = "acid", decrese = 5.46, percent = 31.2} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 10, height = 10}},</v>
+        <v>{ type = "armor", name = "cursed-armor-44", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-44.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 5.72, percent = 33.88 },{ type = "impact", decrese = 4, percent = 23.5 },{ type = "poison", decrese = 3.23, percent = 19 },{ type = "explosion", decrese = 4.35, percent = 25.81 },{ type = "fire", decrese = 2.52, percent = 14.84 },{ type = "laser", decrese = 5.1, percent = 28.9 },{ type = "acid", decrese = 5.46, percent = 31.2} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 10, height = 10}},</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F46">
         <v>44</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H46" s="5">
         <v>5.72</v>
@@ -9957,19 +9957,19 @@
         <v>31.2</v>
       </c>
       <c r="AI46" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ46" s="2">
         <v>10</v>
       </c>
       <c r="AK46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL46" s="2">
         <v>10</v>
       </c>
       <c r="AM46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP46">
         <f t="shared" si="2"/>
@@ -10048,7 +10048,7 @@
         <v>10</v>
       </c>
       <c r="BK46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BL46" t="str">
         <f t="shared" si="8"/>
@@ -10058,25 +10058,25 @@
     <row r="47" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-45", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-45.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 5.85, percent = 34.65 },{ type = "impact", decrese = 4.16, percent = 24.44 },{ type = "poison", decrese = 3.4, percent = 20 },{ type = "explosion", decrese = 4.5, percent = 26.7 },{ type = "fire", decrese = 2.7, percent = 15.9 },{ type = "laser", decrese = 5.25, percent = 29.75 },{ type = "acid", decrese = 5.6, percent = 32} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 10, height = 10}},</v>
+        <v>{ type = "armor", name = "cursed-armor-45", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-45.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 5.85, percent = 34.65 },{ type = "impact", decrese = 4.16, percent = 24.44 },{ type = "poison", decrese = 3.4, percent = 20 },{ type = "explosion", decrese = 4.5, percent = 26.7 },{ type = "fire", decrese = 2.7, percent = 15.9 },{ type = "laser", decrese = 5.25, percent = 29.75 },{ type = "acid", decrese = 5.6, percent = 32} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 10, height = 10}},</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F47">
         <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H47" s="5">
         <v>5.85</v>
@@ -10160,19 +10160,19 @@
         <v>32</v>
       </c>
       <c r="AI47" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ47" s="2">
         <v>10</v>
       </c>
       <c r="AK47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL47" s="2">
         <v>10</v>
       </c>
       <c r="AM47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP47">
         <f t="shared" si="2"/>
@@ -10251,7 +10251,7 @@
         <v>10</v>
       </c>
       <c r="BK47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="BL47" t="str">
         <f t="shared" si="8"/>
@@ -10261,25 +10261,25 @@
     <row r="48" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-46", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-46.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 5.98, percent = 35.42 },{ type = "impact", decrese = 4.32, percent = 25.38 },{ type = "poison", decrese = 3.57, percent = 21 },{ type = "explosion", decrese = 4.65, percent = 27.59 },{ type = "fire", decrese = 2.88, percent = 16.96 },{ type = "laser", decrese = 5.4, percent = 30.6 },{ type = "acid", decrese = 5.74, percent = 32.8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 10, height = 10}},</v>
+        <v>{ type = "armor", name = "cursed-armor-46", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-46.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 5.98, percent = 35.42 },{ type = "impact", decrese = 4.32, percent = 25.38 },{ type = "poison", decrese = 3.57, percent = 21 },{ type = "explosion", decrese = 4.65, percent = 27.59 },{ type = "fire", decrese = 2.88, percent = 16.96 },{ type = "laser", decrese = 5.4, percent = 30.6 },{ type = "acid", decrese = 5.74, percent = 32.8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 10, height = 10}},</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F48">
         <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H48" s="5">
         <v>5.98</v>
@@ -10363,19 +10363,19 @@
         <v>32.799999999999997</v>
       </c>
       <c r="AI48" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ48" s="2">
         <v>10</v>
       </c>
       <c r="AK48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL48" s="2">
         <v>10</v>
       </c>
       <c r="AM48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP48">
         <f t="shared" si="2"/>
@@ -10454,7 +10454,7 @@
         <v>10</v>
       </c>
       <c r="BK48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BL48" t="str">
         <f t="shared" si="8"/>
@@ -10464,25 +10464,25 @@
     <row r="49" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-47", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-47.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 6.11, percent = 36.19 },{ type = "impact", decrese = 4.48, percent = 26.32 },{ type = "poison", decrese = 3.74, percent = 22 },{ type = "explosion", decrese = 4.8, percent = 28.48 },{ type = "fire", decrese = 3.06, percent = 18.02 },{ type = "laser", decrese = 5.55, percent = 31.45 },{ type = "acid", decrese = 5.88, percent = 33.6} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 10, height = 10}},</v>
+        <v>{ type = "armor", name = "cursed-armor-47", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-47.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 6.11, percent = 36.19 },{ type = "impact", decrese = 4.48, percent = 26.32 },{ type = "poison", decrese = 3.74, percent = 22 },{ type = "explosion", decrese = 4.8, percent = 28.48 },{ type = "fire", decrese = 3.06, percent = 18.02 },{ type = "laser", decrese = 5.55, percent = 31.45 },{ type = "acid", decrese = 5.88, percent = 33.6} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 10, height = 10}},</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F49">
         <v>47</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H49" s="5">
         <v>6.11</v>
@@ -10566,19 +10566,19 @@
         <v>33.6</v>
       </c>
       <c r="AI49" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ49" s="2">
         <v>10</v>
       </c>
       <c r="AK49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL49" s="2">
         <v>10</v>
       </c>
       <c r="AM49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP49">
         <f t="shared" si="2"/>
@@ -10657,7 +10657,7 @@
         <v>10</v>
       </c>
       <c r="BK49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BL49" t="str">
         <f t="shared" si="8"/>
@@ -10667,25 +10667,25 @@
     <row r="50" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-48", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-48.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 6.24, percent = 36.96 },{ type = "impact", decrese = 4.64, percent = 27.26 },{ type = "poison", decrese = 3.91, percent = 23 },{ type = "explosion", decrese = 4.95, percent = 29.37 },{ type = "fire", decrese = 3.24, percent = 19.08 },{ type = "laser", decrese = 5.7, percent = 32.3 },{ type = "acid", decrese = 6.02, percent = 34.4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 10, height = 10}},</v>
+        <v>{ type = "armor", name = "cursed-armor-48", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-48.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 6.24, percent = 36.96 },{ type = "impact", decrese = 4.64, percent = 27.26 },{ type = "poison", decrese = 3.91, percent = 23 },{ type = "explosion", decrese = 4.95, percent = 29.37 },{ type = "fire", decrese = 3.24, percent = 19.08 },{ type = "laser", decrese = 5.7, percent = 32.3 },{ type = "acid", decrese = 6.02, percent = 34.4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 10, height = 10}},</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F50">
         <v>48</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50" s="5">
         <v>6.24</v>
@@ -10769,19 +10769,19 @@
         <v>34.4</v>
       </c>
       <c r="AI50" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ50" s="2">
         <v>10</v>
       </c>
       <c r="AK50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL50" s="2">
         <v>10</v>
       </c>
       <c r="AM50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP50">
         <f t="shared" si="2"/>
@@ -10860,7 +10860,7 @@
         <v>10</v>
       </c>
       <c r="BK50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BL50" t="str">
         <f t="shared" si="8"/>
@@ -10870,25 +10870,25 @@
     <row r="51" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-49", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-49.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 6.37, percent = 37.73 },{ type = "impact", decrese = 4.8, percent = 28.2 },{ type = "poison", decrese = 4.08, percent = 24 },{ type = "explosion", decrese = 5.1, percent = 30.26 },{ type = "fire", decrese = 3.42, percent = 20.14 },{ type = "laser", decrese = 5.85, percent = 33.15 },{ type = "acid", decrese = 6.16, percent = 35.2} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 10, height = 10}},</v>
+        <v>{ type = "armor", name = "cursed-armor-49", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-49.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 6.37, percent = 37.73 },{ type = "impact", decrese = 4.8, percent = 28.2 },{ type = "poison", decrese = 4.08, percent = 24 },{ type = "explosion", decrese = 5.1, percent = 30.26 },{ type = "fire", decrese = 3.42, percent = 20.14 },{ type = "laser", decrese = 5.85, percent = 33.15 },{ type = "acid", decrese = 6.16, percent = 35.2} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 10, height = 10}},</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F51">
         <v>49</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51" s="5">
         <v>6.37</v>
@@ -10972,19 +10972,19 @@
         <v>35.200000000000003</v>
       </c>
       <c r="AI51" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ51" s="2">
         <v>10</v>
       </c>
       <c r="AK51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL51" s="2">
         <v>10</v>
       </c>
       <c r="AM51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP51">
         <f t="shared" si="2"/>
@@ -11063,7 +11063,7 @@
         <v>10</v>
       </c>
       <c r="BK51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BL51" t="str">
         <f t="shared" si="8"/>
@@ -11073,25 +11073,25 @@
     <row r="52" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-50", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-50.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 6.5, percent = 38.5 },{ type = "impact", decrese = 4.96, percent = 29.14 },{ type = "poison", decrese = 4.25, percent = 25 },{ type = "explosion", decrese = 5.25, percent = 31.15 },{ type = "fire", decrese = 3.6, percent = 21.2 },{ type = "laser", decrese = 6, percent = 34 },{ type = "acid", decrese = 6.3, percent = 36} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 11, height = 11}},</v>
+        <v>{ type = "armor", name = "cursed-armor-50", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-50.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 6.5, percent = 38.5 },{ type = "impact", decrese = 4.96, percent = 29.14 },{ type = "poison", decrese = 4.25, percent = 25 },{ type = "explosion", decrese = 5.25, percent = 31.15 },{ type = "fire", decrese = 3.6, percent = 21.2 },{ type = "laser", decrese = 6, percent = 34 },{ type = "acid", decrese = 6.3, percent = 36} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 11, height = 11}},</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F52">
         <v>50</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H52" s="5">
         <v>6.5</v>
@@ -11175,19 +11175,19 @@
         <v>36</v>
       </c>
       <c r="AI52" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ52" s="2">
         <v>11</v>
       </c>
       <c r="AK52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL52" s="2">
         <v>11</v>
       </c>
       <c r="AM52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP52">
         <f t="shared" si="2"/>
@@ -11266,7 +11266,7 @@
         <v>11</v>
       </c>
       <c r="BK52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BL52" t="str">
         <f t="shared" si="8"/>
@@ -11276,25 +11276,25 @@
     <row r="53" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-51", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-51.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 6.63, percent = 39.27 },{ type = "impact", decrese = 5.12, percent = 30.08 },{ type = "poison", decrese = 4.42, percent = 26 },{ type = "explosion", decrese = 5.4, percent = 32.04 },{ type = "fire", decrese = 3.78, percent = 22.26 },{ type = "laser", decrese = 6.15, percent = 34.85 },{ type = "acid", decrese = 6.44, percent = 36.8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 11, height = 11}},</v>
+        <v>{ type = "armor", name = "cursed-armor-51", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-51.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 6.63, percent = 39.27 },{ type = "impact", decrese = 5.12, percent = 30.08 },{ type = "poison", decrese = 4.42, percent = 26 },{ type = "explosion", decrese = 5.4, percent = 32.04 },{ type = "fire", decrese = 3.78, percent = 22.26 },{ type = "laser", decrese = 6.15, percent = 34.85 },{ type = "acid", decrese = 6.44, percent = 36.8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 11, height = 11}},</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F53">
         <v>51</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H53" s="5">
         <v>6.63</v>
@@ -11378,19 +11378,19 @@
         <v>36.799999999999997</v>
       </c>
       <c r="AI53" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ53" s="2">
         <v>11</v>
       </c>
       <c r="AK53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL53" s="2">
         <v>11</v>
       </c>
       <c r="AM53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP53">
         <f t="shared" si="2"/>
@@ -11469,7 +11469,7 @@
         <v>11</v>
       </c>
       <c r="BK53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BL53" t="str">
         <f t="shared" si="8"/>
@@ -11479,25 +11479,25 @@
     <row r="54" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-52", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-52.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 6.76, percent = 40.04 },{ type = "impact", decrese = 5.28, percent = 31.02 },{ type = "poison", decrese = 4.59, percent = 27 },{ type = "explosion", decrese = 5.55, percent = 32.93 },{ type = "fire", decrese = 3.96, percent = 23.32 },{ type = "laser", decrese = 6.3, percent = 35.7 },{ type = "acid", decrese = 6.58, percent = 37.6} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 11, height = 11}},</v>
+        <v>{ type = "armor", name = "cursed-armor-52", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-52.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 6.76, percent = 40.04 },{ type = "impact", decrese = 5.28, percent = 31.02 },{ type = "poison", decrese = 4.59, percent = 27 },{ type = "explosion", decrese = 5.55, percent = 32.93 },{ type = "fire", decrese = 3.96, percent = 23.32 },{ type = "laser", decrese = 6.3, percent = 35.7 },{ type = "acid", decrese = 6.58, percent = 37.6} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 11, height = 11}},</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F54">
         <v>52</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H54" s="5">
         <v>6.76</v>
@@ -11581,19 +11581,19 @@
         <v>37.6</v>
       </c>
       <c r="AI54" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ54" s="2">
         <v>11</v>
       </c>
       <c r="AK54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL54" s="2">
         <v>11</v>
       </c>
       <c r="AM54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP54">
         <f t="shared" si="2"/>
@@ -11672,7 +11672,7 @@
         <v>11</v>
       </c>
       <c r="BK54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BL54" t="str">
         <f t="shared" si="8"/>
@@ -11682,25 +11682,25 @@
     <row r="55" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-53", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-53.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 6.89, percent = 40.81 },{ type = "impact", decrese = 5.44, percent = 31.96 },{ type = "poison", decrese = 4.76, percent = 28 },{ type = "explosion", decrese = 5.7, percent = 33.82 },{ type = "fire", decrese = 4.14, percent = 24.38 },{ type = "laser", decrese = 6.45, percent = 36.55 },{ type = "acid", decrese = 6.72, percent = 38.4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 11, height = 11}},</v>
+        <v>{ type = "armor", name = "cursed-armor-53", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-53.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 6.89, percent = 40.81 },{ type = "impact", decrese = 5.44, percent = 31.96 },{ type = "poison", decrese = 4.76, percent = 28 },{ type = "explosion", decrese = 5.7, percent = 33.82 },{ type = "fire", decrese = 4.14, percent = 24.38 },{ type = "laser", decrese = 6.45, percent = 36.55 },{ type = "acid", decrese = 6.72, percent = 38.4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 11, height = 11}},</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C55" t="s">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F55">
         <v>53</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H55" s="5">
         <v>6.89</v>
@@ -11784,19 +11784,19 @@
         <v>38.4</v>
       </c>
       <c r="AI55" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ55" s="2">
         <v>11</v>
       </c>
       <c r="AK55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL55" s="2">
         <v>11</v>
       </c>
       <c r="AM55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP55">
         <f t="shared" si="2"/>
@@ -11875,7 +11875,7 @@
         <v>11</v>
       </c>
       <c r="BK55" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BL55" t="str">
         <f t="shared" si="8"/>
@@ -11885,25 +11885,25 @@
     <row r="56" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-54", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-54.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 7.02, percent = 41.58 },{ type = "impact", decrese = 5.6, percent = 32.9 },{ type = "poison", decrese = 4.93, percent = 29 },{ type = "explosion", decrese = 5.85, percent = 34.71 },{ type = "fire", decrese = 4.32, percent = 25.44 },{ type = "laser", decrese = 6.6, percent = 37.4 },{ type = "acid", decrese = 6.86, percent = 39.2} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 11, height = 11}},</v>
+        <v>{ type = "armor", name = "cursed-armor-54", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-54.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 7.02, percent = 41.58 },{ type = "impact", decrese = 5.6, percent = 32.9 },{ type = "poison", decrese = 4.93, percent = 29 },{ type = "explosion", decrese = 5.85, percent = 34.71 },{ type = "fire", decrese = 4.32, percent = 25.44 },{ type = "laser", decrese = 6.6, percent = 37.4 },{ type = "acid", decrese = 6.86, percent = 39.2} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 11, height = 11}},</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56" t="s">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F56">
         <v>54</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56" s="5">
         <v>7.02</v>
@@ -11987,19 +11987,19 @@
         <v>39.200000000000003</v>
       </c>
       <c r="AI56" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ56" s="2">
         <v>11</v>
       </c>
       <c r="AK56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL56" s="2">
         <v>11</v>
       </c>
       <c r="AM56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP56">
         <f t="shared" si="2"/>
@@ -12078,7 +12078,7 @@
         <v>11</v>
       </c>
       <c r="BK56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BL56" t="str">
         <f t="shared" si="8"/>
@@ -12088,25 +12088,25 @@
     <row r="57" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-55", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-55.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 7.15, percent = 42.35 },{ type = "impact", decrese = 5.76, percent = 33.84 },{ type = "poison", decrese = 5.1, percent = 30 },{ type = "explosion", decrese = 6, percent = 35.6 },{ type = "fire", decrese = 4.5, percent = 26.5 },{ type = "laser", decrese = 6.75, percent = 38.25 },{ type = "acid", decrese = 7, percent = 40} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 12, height = 12}},</v>
+        <v>{ type = "armor", name = "cursed-armor-55", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-55.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 7.15, percent = 42.35 },{ type = "impact", decrese = 5.76, percent = 33.84 },{ type = "poison", decrese = 5.1, percent = 30 },{ type = "explosion", decrese = 6, percent = 35.6 },{ type = "fire", decrese = 4.5, percent = 26.5 },{ type = "laser", decrese = 6.75, percent = 38.25 },{ type = "acid", decrese = 7, percent = 40} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 12, height = 12}},</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F57">
         <v>55</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H57" s="5">
         <v>7.15</v>
@@ -12190,19 +12190,19 @@
         <v>40</v>
       </c>
       <c r="AI57" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ57" s="2">
         <v>12</v>
       </c>
       <c r="AK57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL57" s="2">
         <v>12</v>
       </c>
       <c r="AM57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP57">
         <f t="shared" si="2"/>
@@ -12281,7 +12281,7 @@
         <v>12</v>
       </c>
       <c r="BK57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BL57" t="str">
         <f t="shared" si="8"/>
@@ -12291,25 +12291,25 @@
     <row r="58" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-56", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-56.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 7.28, percent = 43.12 },{ type = "impact", decrese = 5.92, percent = 34.78 },{ type = "poison", decrese = 5.27, percent = 31 },{ type = "explosion", decrese = 6.15, percent = 36.49 },{ type = "fire", decrese = 4.68, percent = 27.56 },{ type = "laser", decrese = 6.9, percent = 39.1 },{ type = "acid", decrese = 7.14, percent = 40.8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 12, height = 12}},</v>
+        <v>{ type = "armor", name = "cursed-armor-56", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-56.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 7.28, percent = 43.12 },{ type = "impact", decrese = 5.92, percent = 34.78 },{ type = "poison", decrese = 5.27, percent = 31 },{ type = "explosion", decrese = 6.15, percent = 36.49 },{ type = "fire", decrese = 4.68, percent = 27.56 },{ type = "laser", decrese = 6.9, percent = 39.1 },{ type = "acid", decrese = 7.14, percent = 40.8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 12, height = 12}},</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F58">
         <v>56</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H58" s="5">
         <v>7.28</v>
@@ -12393,19 +12393,19 @@
         <v>40.799999999999997</v>
       </c>
       <c r="AI58" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ58" s="2">
         <v>12</v>
       </c>
       <c r="AK58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL58" s="2">
         <v>12</v>
       </c>
       <c r="AM58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP58">
         <f t="shared" si="2"/>
@@ -12484,7 +12484,7 @@
         <v>12</v>
       </c>
       <c r="BK58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BL58" t="str">
         <f t="shared" si="8"/>
@@ -12494,25 +12494,25 @@
     <row r="59" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-57", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-57.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 7.41, percent = 43.89 },{ type = "impact", decrese = 6.08, percent = 35.72 },{ type = "poison", decrese = 5.44, percent = 32 },{ type = "explosion", decrese = 6.3, percent = 37.38 },{ type = "fire", decrese = 4.86, percent = 28.62 },{ type = "laser", decrese = 7.05, percent = 39.95 },{ type = "acid", decrese = 7.28, percent = 41.6} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 12, height = 12}},</v>
+        <v>{ type = "armor", name = "cursed-armor-57", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-57.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 7.41, percent = 43.89 },{ type = "impact", decrese = 6.08, percent = 35.72 },{ type = "poison", decrese = 5.44, percent = 32 },{ type = "explosion", decrese = 6.3, percent = 37.38 },{ type = "fire", decrese = 4.86, percent = 28.62 },{ type = "laser", decrese = 7.05, percent = 39.95 },{ type = "acid", decrese = 7.28, percent = 41.6} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 12, height = 12}},</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F59">
         <v>57</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H59" s="5">
         <v>7.41</v>
@@ -12596,19 +12596,19 @@
         <v>41.6</v>
       </c>
       <c r="AI59" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ59" s="2">
         <v>12</v>
       </c>
       <c r="AK59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL59" s="2">
         <v>12</v>
       </c>
       <c r="AM59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP59">
         <f t="shared" si="2"/>
@@ -12687,7 +12687,7 @@
         <v>12</v>
       </c>
       <c r="BK59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BL59" t="str">
         <f t="shared" si="8"/>
@@ -12697,25 +12697,25 @@
     <row r="60" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-58", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-58.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 7.54, percent = 44.66 },{ type = "impact", decrese = 6.24, percent = 36.66 },{ type = "poison", decrese = 5.61, percent = 33 },{ type = "explosion", decrese = 6.45, percent = 38.27 },{ type = "fire", decrese = 5.04, percent = 29.68 },{ type = "laser", decrese = 7.2, percent = 40.8 },{ type = "acid", decrese = 7.42, percent = 42.4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 12, height = 12}},</v>
+        <v>{ type = "armor", name = "cursed-armor-58", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-58.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 7.54, percent = 44.66 },{ type = "impact", decrese = 6.24, percent = 36.66 },{ type = "poison", decrese = 5.61, percent = 33 },{ type = "explosion", decrese = 6.45, percent = 38.27 },{ type = "fire", decrese = 5.04, percent = 29.68 },{ type = "laser", decrese = 7.2, percent = 40.8 },{ type = "acid", decrese = 7.42, percent = 42.4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 12, height = 12}},</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F60">
         <v>58</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60" s="5">
         <v>7.54</v>
@@ -12799,19 +12799,19 @@
         <v>42.4</v>
       </c>
       <c r="AI60" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ60" s="2">
         <v>12</v>
       </c>
       <c r="AK60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL60" s="2">
         <v>12</v>
       </c>
       <c r="AM60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP60">
         <f t="shared" si="2"/>
@@ -12890,7 +12890,7 @@
         <v>12</v>
       </c>
       <c r="BK60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BL60" t="str">
         <f t="shared" si="8"/>
@@ -12900,25 +12900,25 @@
     <row r="61" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-59", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-59.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 7.67, percent = 45.43 },{ type = "impact", decrese = 6.4, percent = 37.6 },{ type = "poison", decrese = 5.78, percent = 34 },{ type = "explosion", decrese = 6.6, percent = 39.16 },{ type = "fire", decrese = 5.22, percent = 30.74 },{ type = "laser", decrese = 7.35, percent = 41.65 },{ type = "acid", decrese = 7.56, percent = 43.2} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 12, height = 12}},</v>
+        <v>{ type = "armor", name = "cursed-armor-59", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-59.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 7.67, percent = 45.43 },{ type = "impact", decrese = 6.4, percent = 37.6 },{ type = "poison", decrese = 5.78, percent = 34 },{ type = "explosion", decrese = 6.6, percent = 39.16 },{ type = "fire", decrese = 5.22, percent = 30.74 },{ type = "laser", decrese = 7.35, percent = 41.65 },{ type = "acid", decrese = 7.56, percent = 43.2} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 12, height = 12}},</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F61">
         <v>59</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H61" s="5">
         <v>7.67</v>
@@ -13002,19 +13002,19 @@
         <v>43.2</v>
       </c>
       <c r="AI61" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ61" s="2">
         <v>12</v>
       </c>
       <c r="AK61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL61" s="2">
         <v>12</v>
       </c>
       <c r="AM61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP61">
         <f t="shared" si="2"/>
@@ -13093,7 +13093,7 @@
         <v>12</v>
       </c>
       <c r="BK61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BL61" t="str">
         <f t="shared" si="8"/>
@@ -13103,25 +13103,25 @@
     <row r="62" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-60", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-60.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 7.8, percent = 46.2 },{ type = "impact", decrese = 6.56, percent = 38.54 },{ type = "poison", decrese = 5.95, percent = 35 },{ type = "explosion", decrese = 6.75, percent = 40.05 },{ type = "fire", decrese = 5.4, percent = 31.8 },{ type = "laser", decrese = 7.5, percent = 42.5 },{ type = "acid", decrese = 7.7, percent = 44} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 12, height = 12}},</v>
+        <v>{ type = "armor", name = "cursed-armor-60", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-60.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 7.8, percent = 46.2 },{ type = "impact", decrese = 6.56, percent = 38.54 },{ type = "poison", decrese = 5.95, percent = 35 },{ type = "explosion", decrese = 6.75, percent = 40.05 },{ type = "fire", decrese = 5.4, percent = 31.8 },{ type = "laser", decrese = 7.5, percent = 42.5 },{ type = "acid", decrese = 7.7, percent = 44} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 12, height = 12}},</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F62">
         <v>60</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H62" s="5">
         <v>7.8</v>
@@ -13205,19 +13205,19 @@
         <v>44</v>
       </c>
       <c r="AI62" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ62" s="2">
         <v>12</v>
       </c>
       <c r="AK62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL62" s="2">
         <v>12</v>
       </c>
       <c r="AM62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP62">
         <f t="shared" si="2"/>
@@ -13296,7 +13296,7 @@
         <v>12</v>
       </c>
       <c r="BK62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BL62" t="str">
         <f t="shared" si="8"/>
@@ -13306,25 +13306,25 @@
     <row r="63" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-61", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-61.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 7.93, percent = 46.97 },{ type = "impact", decrese = 6.72, percent = 39.48 },{ type = "poison", decrese = 6.12, percent = 36 },{ type = "explosion", decrese = 6.9, percent = 40.94 },{ type = "fire", decrese = 5.58, percent = 32.86 },{ type = "laser", decrese = 7.65, percent = 43.35 },{ type = "acid", decrese = 7.84, percent = 44.8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 13, height = 13}},</v>
+        <v>{ type = "armor", name = "cursed-armor-61", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-61.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 7.93, percent = 46.97 },{ type = "impact", decrese = 6.72, percent = 39.48 },{ type = "poison", decrese = 6.12, percent = 36 },{ type = "explosion", decrese = 6.9, percent = 40.94 },{ type = "fire", decrese = 5.58, percent = 32.86 },{ type = "laser", decrese = 7.65, percent = 43.35 },{ type = "acid", decrese = 7.84, percent = 44.8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 13, height = 13}},</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F63">
         <v>61</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H63" s="5">
         <v>7.93</v>
@@ -13408,19 +13408,19 @@
         <v>44.8</v>
       </c>
       <c r="AI63" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ63" s="2">
         <v>13</v>
       </c>
       <c r="AK63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL63" s="2">
         <v>13</v>
       </c>
       <c r="AM63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP63">
         <f t="shared" si="2"/>
@@ -13499,7 +13499,7 @@
         <v>13</v>
       </c>
       <c r="BK63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BL63" t="str">
         <f t="shared" si="8"/>
@@ -13509,25 +13509,25 @@
     <row r="64" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-62", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-62.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 8.06, percent = 47.74 },{ type = "impact", decrese = 6.88, percent = 40.42 },{ type = "poison", decrese = 6.29, percent = 37 },{ type = "explosion", decrese = 7.05, percent = 41.83 },{ type = "fire", decrese = 5.76, percent = 33.92 },{ type = "laser", decrese = 7.8, percent = 44.2 },{ type = "acid", decrese = 7.98, percent = 45.6} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 13, height = 13}},</v>
+        <v>{ type = "armor", name = "cursed-armor-62", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-62.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 8.06, percent = 47.74 },{ type = "impact", decrese = 6.88, percent = 40.42 },{ type = "poison", decrese = 6.29, percent = 37 },{ type = "explosion", decrese = 7.05, percent = 41.83 },{ type = "fire", decrese = 5.76, percent = 33.92 },{ type = "laser", decrese = 7.8, percent = 44.2 },{ type = "acid", decrese = 7.98, percent = 45.6} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 13, height = 13}},</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F64">
         <v>62</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H64" s="5">
         <v>8.06</v>
@@ -13611,19 +13611,19 @@
         <v>45.6</v>
       </c>
       <c r="AI64" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ64" s="2">
         <v>13</v>
       </c>
       <c r="AK64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL64" s="2">
         <v>13</v>
       </c>
       <c r="AM64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP64">
         <f t="shared" si="2"/>
@@ -13702,7 +13702,7 @@
         <v>13</v>
       </c>
       <c r="BK64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BL64" t="str">
         <f t="shared" si="8"/>
@@ -13712,25 +13712,25 @@
     <row r="65" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-63", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-63.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 8.19, percent = 48.51 },{ type = "impact", decrese = 7.04, percent = 41.36 },{ type = "poison", decrese = 6.46, percent = 38 },{ type = "explosion", decrese = 7.2, percent = 42.72 },{ type = "fire", decrese = 5.94, percent = 34.98 },{ type = "laser", decrese = 7.95, percent = 45.05 },{ type = "acid", decrese = 8.12, percent = 46.4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 13, height = 13}},</v>
+        <v>{ type = "armor", name = "cursed-armor-63", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-63.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 8.19, percent = 48.51 },{ type = "impact", decrese = 7.04, percent = 41.36 },{ type = "poison", decrese = 6.46, percent = 38 },{ type = "explosion", decrese = 7.2, percent = 42.72 },{ type = "fire", decrese = 5.94, percent = 34.98 },{ type = "laser", decrese = 7.95, percent = 45.05 },{ type = "acid", decrese = 8.12, percent = 46.4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 13, height = 13}},</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F65">
         <v>63</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65" s="5">
         <v>8.19</v>
@@ -13814,19 +13814,19 @@
         <v>46.4</v>
       </c>
       <c r="AI65" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ65" s="2">
         <v>13</v>
       </c>
       <c r="AK65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL65" s="2">
         <v>13</v>
       </c>
       <c r="AM65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP65">
         <f t="shared" si="2"/>
@@ -13905,7 +13905,7 @@
         <v>13</v>
       </c>
       <c r="BK65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BL65" t="str">
         <f t="shared" si="8"/>
@@ -13915,25 +13915,25 @@
     <row r="66" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-64", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-64.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 8.32, percent = 49.28 },{ type = "impact", decrese = 7.2, percent = 42.3 },{ type = "poison", decrese = 6.63, percent = 39 },{ type = "explosion", decrese = 7.35, percent = 43.61 },{ type = "fire", decrese = 6.12, percent = 36.04 },{ type = "laser", decrese = 8.1, percent = 45.9 },{ type = "acid", decrese = 8.26, percent = 47.2} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 13, height = 13}},</v>
+        <v>{ type = "armor", name = "cursed-armor-64", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-64.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 8.32, percent = 49.28 },{ type = "impact", decrese = 7.2, percent = 42.3 },{ type = "poison", decrese = 6.63, percent = 39 },{ type = "explosion", decrese = 7.35, percent = 43.61 },{ type = "fire", decrese = 6.12, percent = 36.04 },{ type = "laser", decrese = 8.1, percent = 45.9 },{ type = "acid", decrese = 8.26, percent = 47.2} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 13, height = 13}},</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" t="s">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F66">
         <v>64</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H66" s="5">
         <v>8.32</v>
@@ -14017,19 +14017,19 @@
         <v>47.2</v>
       </c>
       <c r="AI66" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ66" s="2">
         <v>13</v>
       </c>
       <c r="AK66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL66" s="2">
         <v>13</v>
       </c>
       <c r="AM66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP66">
         <f t="shared" si="2"/>
@@ -14108,7 +14108,7 @@
         <v>13</v>
       </c>
       <c r="BK66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BL66" t="str">
         <f t="shared" si="8"/>
@@ -14118,25 +14118,25 @@
     <row r="67" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
-        <v>{ type = "armor", name = "cursed-armor-65", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-65.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 8.45, percent = 50.05 },{ type = "impact", decrese = 7.36, percent = 43.24 },{ type = "poison", decrese = 6.8, percent = 40 },{ type = "explosion", decrese = 7.5, percent = 44.5 },{ type = "fire", decrese = 6.3, percent = 37.1 },{ type = "laser", decrese = 8.25, percent = 46.75 },{ type = "acid", decrese = 8.4, percent = 48} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 13, height = 13}},</v>
+        <v>{ type = "armor", name = "cursed-armor-65", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-65.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 8.45, percent = 50.05 },{ type = "impact", decrese = 7.36, percent = 43.24 },{ type = "poison", decrese = 6.8, percent = 40 },{ type = "explosion", decrese = 7.5, percent = 44.5 },{ type = "fire", decrese = 6.3, percent = 37.1 },{ type = "laser", decrese = 8.25, percent = 46.75 },{ type = "acid", decrese = 8.4, percent = 48} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 13, height = 13}},</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F67">
         <v>65</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H67" s="5">
         <v>8.4499999999999993</v>
@@ -14220,19 +14220,19 @@
         <v>48</v>
       </c>
       <c r="AI67" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ67" s="2">
         <v>13</v>
       </c>
       <c r="AK67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL67" s="2">
         <v>13</v>
       </c>
       <c r="AM67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP67">
         <f t="shared" si="2"/>
@@ -14311,7 +14311,7 @@
         <v>13</v>
       </c>
       <c r="BK67" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BL67" t="str">
         <f t="shared" si="8"/>
@@ -14321,25 +14321,25 @@
     <row r="68" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" ref="A68:A112" si="21">CONCATENATE(C68,D68,E68,F68,G68,H68,I68,J68,K68,L68,M68,N68,O68,P68,Q68,R68,S68,T68,U68,V68,W68,X68,Y68,Z68,AA68,AB68,AC68,AD68,AE68,AF68,AG68,AH68,AI68,AJ68,AK68,AL68,AM68)</f>
-        <v>{ type = "armor", name = "cursed-armor-66", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-66.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 8.58, percent = 50.82 },{ type = "impact", decrese = 7.52, percent = 44.18 },{ type = "poison", decrese = 6.97, percent = 41 },{ type = "explosion", decrese = 7.65, percent = 45.39 },{ type = "fire", decrese = 6.48, percent = 38.16 },{ type = "laser", decrese = 8.4, percent = 47.6 },{ type = "acid", decrese = 8.54, percent = 48.8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 14, height = 14}},</v>
+        <v>{ type = "armor", name = "cursed-armor-66", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-66.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 8.58, percent = 50.82 },{ type = "impact", decrese = 7.52, percent = 44.18 },{ type = "poison", decrese = 6.97, percent = 41 },{ type = "explosion", decrese = 7.65, percent = 45.39 },{ type = "fire", decrese = 6.48, percent = 38.16 },{ type = "laser", decrese = 8.4, percent = 47.6 },{ type = "acid", decrese = 8.54, percent = 48.8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 14, height = 14}},</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F68">
         <v>66</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H68" s="5">
         <v>8.58</v>
@@ -14423,19 +14423,19 @@
         <v>48.8</v>
       </c>
       <c r="AI68" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ68" s="2">
         <v>14</v>
       </c>
       <c r="AK68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL68" s="2">
         <v>14</v>
       </c>
       <c r="AM68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP68">
         <f t="shared" si="2"/>
@@ -14514,7 +14514,7 @@
         <v>14</v>
       </c>
       <c r="BK68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BL68" t="str">
         <f t="shared" si="8"/>
@@ -14524,25 +14524,25 @@
     <row r="69" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-67", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-67.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 8.71, percent = 51.59 },{ type = "impact", decrese = 7.68, percent = 45.12 },{ type = "poison", decrese = 7.14, percent = 42 },{ type = "explosion", decrese = 7.8, percent = 46.28 },{ type = "fire", decrese = 6.66, percent = 39.22 },{ type = "laser", decrese = 8.55, percent = 48.45 },{ type = "acid", decrese = 8.68, percent = 49.6} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 14, height = 14}},</v>
+        <v>{ type = "armor", name = "cursed-armor-67", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-67.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 8.71, percent = 51.59 },{ type = "impact", decrese = 7.68, percent = 45.12 },{ type = "poison", decrese = 7.14, percent = 42 },{ type = "explosion", decrese = 7.8, percent = 46.28 },{ type = "fire", decrese = 6.66, percent = 39.22 },{ type = "laser", decrese = 8.55, percent = 48.45 },{ type = "acid", decrese = 8.68, percent = 49.6} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 14, height = 14}},</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F69">
         <v>67</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H69" s="5">
         <v>8.7100000000000009</v>
@@ -14626,19 +14626,19 @@
         <v>49.6</v>
       </c>
       <c r="AI69" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ69" s="2">
         <v>14</v>
       </c>
       <c r="AK69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL69" s="2">
         <v>14</v>
       </c>
       <c r="AM69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP69">
         <f t="shared" ref="AP69:AP112" si="22">AP68+1</f>
@@ -14717,7 +14717,7 @@
         <v>14</v>
       </c>
       <c r="BK69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BL69" t="str">
         <f t="shared" si="8"/>
@@ -14727,25 +14727,25 @@
     <row r="70" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-68", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-68.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 8.84, percent = 52.36 },{ type = "impact", decrese = 7.84, percent = 46.06 },{ type = "poison", decrese = 7.31, percent = 43 },{ type = "explosion", decrese = 7.95, percent = 47.17 },{ type = "fire", decrese = 6.84, percent = 40.28 },{ type = "laser", decrese = 8.7, percent = 49.3 },{ type = "acid", decrese = 8.82, percent = 50.4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 14, height = 14}},</v>
+        <v>{ type = "armor", name = "cursed-armor-68", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-68.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 8.84, percent = 52.36 },{ type = "impact", decrese = 7.84, percent = 46.06 },{ type = "poison", decrese = 7.31, percent = 43 },{ type = "explosion", decrese = 7.95, percent = 47.17 },{ type = "fire", decrese = 6.84, percent = 40.28 },{ type = "laser", decrese = 8.7, percent = 49.3 },{ type = "acid", decrese = 8.82, percent = 50.4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 14, height = 14}},</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C70" t="s">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E70" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F70">
         <v>68</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H70" s="5">
         <v>8.84</v>
@@ -14829,19 +14829,19 @@
         <v>50.4</v>
       </c>
       <c r="AI70" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ70" s="2">
         <v>14</v>
       </c>
       <c r="AK70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL70" s="2">
         <v>14</v>
       </c>
       <c r="AM70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP70">
         <f t="shared" si="22"/>
@@ -14920,7 +14920,7 @@
         <v>14</v>
       </c>
       <c r="BK70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BL70" t="str">
         <f t="shared" ref="BL70:BL112" si="28">CONCATENATE(D70," = ",BK70)</f>
@@ -14930,25 +14930,25 @@
     <row r="71" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-69", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-69.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 8.97, percent = 53.13 },{ type = "impact", decrese = 8, percent = 47 },{ type = "poison", decrese = 7.48, percent = 44 },{ type = "explosion", decrese = 8.1, percent = 48.06 },{ type = "fire", decrese = 7.02, percent = 41.34 },{ type = "laser", decrese = 8.85, percent = 50.15 },{ type = "acid", decrese = 8.96, percent = 51.2} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 14, height = 14}},</v>
+        <v>{ type = "armor", name = "cursed-armor-69", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-69.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 8.97, percent = 53.13 },{ type = "impact", decrese = 8, percent = 47 },{ type = "poison", decrese = 7.48, percent = 44 },{ type = "explosion", decrese = 8.1, percent = 48.06 },{ type = "fire", decrese = 7.02, percent = 41.34 },{ type = "laser", decrese = 8.85, percent = 50.15 },{ type = "acid", decrese = 8.96, percent = 51.2} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 14, height = 14}},</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F71">
         <v>69</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H71" s="5">
         <v>8.9700000000000006</v>
@@ -15032,19 +15032,19 @@
         <v>51.2</v>
       </c>
       <c r="AI71" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ71" s="2">
         <v>14</v>
       </c>
       <c r="AK71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL71" s="2">
         <v>14</v>
       </c>
       <c r="AM71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP71">
         <f t="shared" si="22"/>
@@ -15123,7 +15123,7 @@
         <v>14</v>
       </c>
       <c r="BK71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BL71" t="str">
         <f t="shared" si="28"/>
@@ -15133,25 +15133,25 @@
     <row r="72" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-70", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-70.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 9.1, percent = 53.9 },{ type = "impact", decrese = 8.16, percent = 47.94 },{ type = "poison", decrese = 7.65, percent = 45 },{ type = "explosion", decrese = 8.25, percent = 48.95 },{ type = "fire", decrese = 7.2, percent = 42.4 },{ type = "laser", decrese = 9, percent = 51 },{ type = "acid", decrese = 9.1, percent = 52} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 14, height = 14}},</v>
+        <v>{ type = "armor", name = "cursed-armor-70", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-70.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 9.1, percent = 53.9 },{ type = "impact", decrese = 8.16, percent = 47.94 },{ type = "poison", decrese = 7.65, percent = 45 },{ type = "explosion", decrese = 8.25, percent = 48.95 },{ type = "fire", decrese = 7.2, percent = 42.4 },{ type = "laser", decrese = 9, percent = 51 },{ type = "acid", decrese = 9.1, percent = 52} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 14, height = 14}},</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C72" t="s">
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F72">
         <v>70</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72" s="5">
         <v>9.1</v>
@@ -15235,19 +15235,19 @@
         <v>52</v>
       </c>
       <c r="AI72" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ72" s="2">
         <v>14</v>
       </c>
       <c r="AK72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL72" s="2">
         <v>14</v>
       </c>
       <c r="AM72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP72">
         <f t="shared" si="22"/>
@@ -15326,7 +15326,7 @@
         <v>14</v>
       </c>
       <c r="BK72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BL72" t="str">
         <f t="shared" si="28"/>
@@ -15336,25 +15336,25 @@
     <row r="73" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-71", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-71.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 9.23, percent = 54.67 },{ type = "impact", decrese = 8.32, percent = 48.88 },{ type = "poison", decrese = 7.82, percent = 46 },{ type = "explosion", decrese = 8.4, percent = 49.84 },{ type = "fire", decrese = 7.38, percent = 43.46 },{ type = "laser", decrese = 9.15, percent = 51.85 },{ type = "acid", decrese = 9.24, percent = 52.8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 14, height = 14}},</v>
+        <v>{ type = "armor", name = "cursed-armor-71", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-71.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 9.23, percent = 54.67 },{ type = "impact", decrese = 8.32, percent = 48.88 },{ type = "poison", decrese = 7.82, percent = 46 },{ type = "explosion", decrese = 8.4, percent = 49.84 },{ type = "fire", decrese = 7.38, percent = 43.46 },{ type = "laser", decrese = 9.15, percent = 51.85 },{ type = "acid", decrese = 9.24, percent = 52.8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 14, height = 14}},</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C73" t="s">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F73">
         <v>71</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73" s="5">
         <v>9.23</v>
@@ -15438,19 +15438,19 @@
         <v>52.8</v>
       </c>
       <c r="AI73" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ73" s="2">
         <v>14</v>
       </c>
       <c r="AK73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL73" s="2">
         <v>14</v>
       </c>
       <c r="AM73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP73">
         <f t="shared" si="22"/>
@@ -15529,7 +15529,7 @@
         <v>14</v>
       </c>
       <c r="BK73" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BL73" t="str">
         <f t="shared" si="28"/>
@@ -15539,25 +15539,25 @@
     <row r="74" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-72", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-72.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 9.36, percent = 55.44 },{ type = "impact", decrese = 8.48, percent = 49.82 },{ type = "poison", decrese = 7.99, percent = 47 },{ type = "explosion", decrese = 8.55, percent = 50.73 },{ type = "fire", decrese = 7.56, percent = 44.52 },{ type = "laser", decrese = 9.3, percent = 52.7 },{ type = "acid", decrese = 9.38, percent = 53.6} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 15, height = 15}},</v>
+        <v>{ type = "armor", name = "cursed-armor-72", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-72.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 9.36, percent = 55.44 },{ type = "impact", decrese = 8.48, percent = 49.82 },{ type = "poison", decrese = 7.99, percent = 47 },{ type = "explosion", decrese = 8.55, percent = 50.73 },{ type = "fire", decrese = 7.56, percent = 44.52 },{ type = "laser", decrese = 9.3, percent = 52.7 },{ type = "acid", decrese = 9.38, percent = 53.6} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 15, height = 15}},</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F74">
         <v>72</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H74" s="5">
         <v>9.36</v>
@@ -15641,19 +15641,19 @@
         <v>53.6</v>
       </c>
       <c r="AI74" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ74" s="2">
         <v>15</v>
       </c>
       <c r="AK74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL74" s="2">
         <v>15</v>
       </c>
       <c r="AM74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP74">
         <f t="shared" si="22"/>
@@ -15732,7 +15732,7 @@
         <v>15</v>
       </c>
       <c r="BK74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="BL74" t="str">
         <f t="shared" si="28"/>
@@ -15742,25 +15742,25 @@
     <row r="75" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-73", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-73.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 9.49, percent = 56.21 },{ type = "impact", decrese = 8.64, percent = 50.76 },{ type = "poison", decrese = 8.16, percent = 48 },{ type = "explosion", decrese = 8.7, percent = 51.62 },{ type = "fire", decrese = 7.74, percent = 45.58 },{ type = "laser", decrese = 9.45, percent = 53.55 },{ type = "acid", decrese = 9.52, percent = 54.4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 15, height = 15}},</v>
+        <v>{ type = "armor", name = "cursed-armor-73", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-73.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 9.49, percent = 56.21 },{ type = "impact", decrese = 8.64, percent = 50.76 },{ type = "poison", decrese = 8.16, percent = 48 },{ type = "explosion", decrese = 8.7, percent = 51.62 },{ type = "fire", decrese = 7.74, percent = 45.58 },{ type = "laser", decrese = 9.45, percent = 53.55 },{ type = "acid", decrese = 9.52, percent = 54.4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 15, height = 15}},</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C75" t="s">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F75">
         <v>73</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H75" s="5">
         <v>9.49</v>
@@ -15844,19 +15844,19 @@
         <v>54.4</v>
       </c>
       <c r="AI75" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ75" s="2">
         <v>15</v>
       </c>
       <c r="AK75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL75" s="2">
         <v>15</v>
       </c>
       <c r="AM75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP75">
         <f t="shared" si="22"/>
@@ -15935,7 +15935,7 @@
         <v>15</v>
       </c>
       <c r="BK75" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BL75" t="str">
         <f t="shared" si="28"/>
@@ -15945,25 +15945,25 @@
     <row r="76" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-74", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-74.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 9.62, percent = 56.98 },{ type = "impact", decrese = 8.8, percent = 51.7 },{ type = "poison", decrese = 8.33, percent = 49 },{ type = "explosion", decrese = 8.85, percent = 52.51 },{ type = "fire", decrese = 7.92, percent = 46.64 },{ type = "laser", decrese = 9.6, percent = 54.4 },{ type = "acid", decrese = 9.66, percent = 55.2} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 15, height = 15}},</v>
+        <v>{ type = "armor", name = "cursed-armor-74", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-74.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 9.62, percent = 56.98 },{ type = "impact", decrese = 8.8, percent = 51.7 },{ type = "poison", decrese = 8.33, percent = 49 },{ type = "explosion", decrese = 8.85, percent = 52.51 },{ type = "fire", decrese = 7.92, percent = 46.64 },{ type = "laser", decrese = 9.6, percent = 54.4 },{ type = "acid", decrese = 9.66, percent = 55.2} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 15, height = 15}},</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C76" t="s">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F76">
         <v>74</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H76" s="5">
         <v>9.6199999999999992</v>
@@ -16047,19 +16047,19 @@
         <v>55.2</v>
       </c>
       <c r="AI76" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ76" s="2">
         <v>15</v>
       </c>
       <c r="AK76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL76" s="2">
         <v>15</v>
       </c>
       <c r="AM76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP76">
         <f t="shared" si="22"/>
@@ -16138,7 +16138,7 @@
         <v>15</v>
       </c>
       <c r="BK76" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BL76" t="str">
         <f t="shared" si="28"/>
@@ -16148,25 +16148,25 @@
     <row r="77" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-75", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-75.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 9.75, percent = 57.75 },{ type = "impact", decrese = 8.96, percent = 52.64 },{ type = "poison", decrese = 8.5, percent = 50 },{ type = "explosion", decrese = 9, percent = 53.4 },{ type = "fire", decrese = 8.1, percent = 47.7 },{ type = "laser", decrese = 9.75, percent = 55.25 },{ type = "acid", decrese = 9.8, percent = 56} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 15, height = 15}},</v>
+        <v>{ type = "armor", name = "cursed-armor-75", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-75.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 9.75, percent = 57.75 },{ type = "impact", decrese = 8.96, percent = 52.64 },{ type = "poison", decrese = 8.5, percent = 50 },{ type = "explosion", decrese = 9, percent = 53.4 },{ type = "fire", decrese = 8.1, percent = 47.7 },{ type = "laser", decrese = 9.75, percent = 55.25 },{ type = "acid", decrese = 9.8, percent = 56} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 15, height = 15}},</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C77" t="s">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F77">
         <v>75</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H77" s="5">
         <v>9.75</v>
@@ -16250,19 +16250,19 @@
         <v>56</v>
       </c>
       <c r="AI77" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ77" s="2">
         <v>15</v>
       </c>
       <c r="AK77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL77" s="2">
         <v>15</v>
       </c>
       <c r="AM77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP77">
         <f t="shared" si="22"/>
@@ -16341,7 +16341,7 @@
         <v>15</v>
       </c>
       <c r="BK77" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BL77" t="str">
         <f t="shared" si="28"/>
@@ -16351,25 +16351,25 @@
     <row r="78" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-76", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-76.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 9.88, percent = 58.52 },{ type = "impact", decrese = 9.12, percent = 53.58 },{ type = "poison", decrese = 8.67, percent = 51 },{ type = "explosion", decrese = 9.15, percent = 54.29 },{ type = "fire", decrese = 8.28, percent = 48.76 },{ type = "laser", decrese = 9.9, percent = 56.1 },{ type = "acid", decrese = 9.94, percent = 56.8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 15, height = 15}},</v>
+        <v>{ type = "armor", name = "cursed-armor-76", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-76.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 9.88, percent = 58.52 },{ type = "impact", decrese = 9.12, percent = 53.58 },{ type = "poison", decrese = 8.67, percent = 51 },{ type = "explosion", decrese = 9.15, percent = 54.29 },{ type = "fire", decrese = 8.28, percent = 48.76 },{ type = "laser", decrese = 9.9, percent = 56.1 },{ type = "acid", decrese = 9.94, percent = 56.8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 15, height = 15}},</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C78" t="s">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F78">
         <v>76</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H78" s="5">
         <v>9.8800000000000008</v>
@@ -16453,19 +16453,19 @@
         <v>56.8</v>
       </c>
       <c r="AI78" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ78" s="2">
         <v>15</v>
       </c>
       <c r="AK78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL78" s="2">
         <v>15</v>
       </c>
       <c r="AM78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP78">
         <f t="shared" si="22"/>
@@ -16544,7 +16544,7 @@
         <v>15</v>
       </c>
       <c r="BK78" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BL78" t="str">
         <f t="shared" si="28"/>
@@ -16554,25 +16554,25 @@
     <row r="79" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-77", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-77.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 10.01, percent = 59.29 },{ type = "impact", decrese = 9.28, percent = 54.52 },{ type = "poison", decrese = 8.84, percent = 52 },{ type = "explosion", decrese = 9.3, percent = 55.18 },{ type = "fire", decrese = 8.46, percent = 49.82 },{ type = "laser", decrese = 10.05, percent = 56.95 },{ type = "acid", decrese = 10.08, percent = 57.6} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 16, height = 16}},</v>
+        <v>{ type = "armor", name = "cursed-armor-77", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-77.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 10.01, percent = 59.29 },{ type = "impact", decrese = 9.28, percent = 54.52 },{ type = "poison", decrese = 8.84, percent = 52 },{ type = "explosion", decrese = 9.3, percent = 55.18 },{ type = "fire", decrese = 8.46, percent = 49.82 },{ type = "laser", decrese = 10.05, percent = 56.95 },{ type = "acid", decrese = 10.08, percent = 57.6} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 16, height = 16}},</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C79" t="s">
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F79">
         <v>77</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H79" s="5">
         <v>10.01</v>
@@ -16656,19 +16656,19 @@
         <v>57.6</v>
       </c>
       <c r="AI79" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ79" s="2">
         <v>16</v>
       </c>
       <c r="AK79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL79" s="2">
         <v>16</v>
       </c>
       <c r="AM79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP79">
         <f t="shared" si="22"/>
@@ -16747,7 +16747,7 @@
         <v>16</v>
       </c>
       <c r="BK79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BL79" t="str">
         <f t="shared" si="28"/>
@@ -16757,25 +16757,25 @@
     <row r="80" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-78", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-78.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 10.14, percent = 60.06 },{ type = "impact", decrese = 9.44, percent = 55.46 },{ type = "poison", decrese = 9.01, percent = 53 },{ type = "explosion", decrese = 9.45, percent = 56.07 },{ type = "fire", decrese = 8.64, percent = 50.88 },{ type = "laser", decrese = 10.2, percent = 57.8 },{ type = "acid", decrese = 10.22, percent = 58.4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 16, height = 16}},</v>
+        <v>{ type = "armor", name = "cursed-armor-78", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-78.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 10.14, percent = 60.06 },{ type = "impact", decrese = 9.44, percent = 55.46 },{ type = "poison", decrese = 9.01, percent = 53 },{ type = "explosion", decrese = 9.45, percent = 56.07 },{ type = "fire", decrese = 8.64, percent = 50.88 },{ type = "laser", decrese = 10.2, percent = 57.8 },{ type = "acid", decrese = 10.22, percent = 58.4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 16, height = 16}},</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C80" t="s">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F80">
         <v>78</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H80" s="5">
         <v>10.14</v>
@@ -16859,19 +16859,19 @@
         <v>58.4</v>
       </c>
       <c r="AI80" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ80" s="2">
         <v>16</v>
       </c>
       <c r="AK80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL80" s="2">
         <v>16</v>
       </c>
       <c r="AM80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP80">
         <f t="shared" si="22"/>
@@ -16950,7 +16950,7 @@
         <v>16</v>
       </c>
       <c r="BK80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BL80" t="str">
         <f t="shared" si="28"/>
@@ -16960,25 +16960,25 @@
     <row r="81" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-79", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-79.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 10.27, percent = 60.83 },{ type = "impact", decrese = 9.6, percent = 56.4 },{ type = "poison", decrese = 9.18, percent = 54 },{ type = "explosion", decrese = 9.6, percent = 56.96 },{ type = "fire", decrese = 8.82, percent = 51.94 },{ type = "laser", decrese = 10.35, percent = 58.65 },{ type = "acid", decrese = 10.36, percent = 59.2} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 16, height = 16}},</v>
+        <v>{ type = "armor", name = "cursed-armor-79", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-79.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 10.27, percent = 60.83 },{ type = "impact", decrese = 9.6, percent = 56.4 },{ type = "poison", decrese = 9.18, percent = 54 },{ type = "explosion", decrese = 9.6, percent = 56.96 },{ type = "fire", decrese = 8.82, percent = 51.94 },{ type = "laser", decrese = 10.35, percent = 58.65 },{ type = "acid", decrese = 10.36, percent = 59.2} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 16, height = 16}},</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C81" t="s">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F81">
         <v>79</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H81" s="5">
         <v>10.27</v>
@@ -17062,19 +17062,19 @@
         <v>59.2</v>
       </c>
       <c r="AI81" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ81" s="2">
         <v>16</v>
       </c>
       <c r="AK81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL81" s="2">
         <v>16</v>
       </c>
       <c r="AM81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP81">
         <f t="shared" si="22"/>
@@ -17153,7 +17153,7 @@
         <v>16</v>
       </c>
       <c r="BK81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BL81" t="str">
         <f t="shared" si="28"/>
@@ -17163,25 +17163,25 @@
     <row r="82" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-80", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-80.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 10.4, percent = 61.6 },{ type = "impact", decrese = 9.76, percent = 57.34 },{ type = "poison", decrese = 9.35, percent = 55 },{ type = "explosion", decrese = 9.75, percent = 57.85 },{ type = "fire", decrese = 9, percent = 53 },{ type = "laser", decrese = 10.5, percent = 59.5 },{ type = "acid", decrese = 10.5, percent = 60} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 16, height = 16}},</v>
+        <v>{ type = "armor", name = "cursed-armor-80", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-80.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 10.4, percent = 61.6 },{ type = "impact", decrese = 9.76, percent = 57.34 },{ type = "poison", decrese = 9.35, percent = 55 },{ type = "explosion", decrese = 9.75, percent = 57.85 },{ type = "fire", decrese = 9, percent = 53 },{ type = "laser", decrese = 10.5, percent = 59.5 },{ type = "acid", decrese = 10.5, percent = 60} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 16, height = 16}},</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C82" t="s">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F82">
         <v>80</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H82" s="5">
         <v>10.4</v>
@@ -17265,19 +17265,19 @@
         <v>60</v>
       </c>
       <c r="AI82" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ82" s="2">
         <v>16</v>
       </c>
       <c r="AK82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL82" s="2">
         <v>16</v>
       </c>
       <c r="AM82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP82">
         <f t="shared" si="22"/>
@@ -17356,7 +17356,7 @@
         <v>16</v>
       </c>
       <c r="BK82" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BL82" t="str">
         <f t="shared" si="28"/>
@@ -17366,25 +17366,25 @@
     <row r="83" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-81", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-81.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 10.53, percent = 62.37 },{ type = "impact", decrese = 9.92, percent = 58.28 },{ type = "poison", decrese = 9.52, percent = 56 },{ type = "explosion", decrese = 9.9, percent = 58.74 },{ type = "fire", decrese = 9.18, percent = 54.06 },{ type = "laser", decrese = 10.65, percent = 60.35 },{ type = "acid", decrese = 10.64, percent = 60.8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 16, height = 16}},</v>
+        <v>{ type = "armor", name = "cursed-armor-81", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-81.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 10.53, percent = 62.37 },{ type = "impact", decrese = 9.92, percent = 58.28 },{ type = "poison", decrese = 9.52, percent = 56 },{ type = "explosion", decrese = 9.9, percent = 58.74 },{ type = "fire", decrese = 9.18, percent = 54.06 },{ type = "laser", decrese = 10.65, percent = 60.35 },{ type = "acid", decrese = 10.64, percent = 60.8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 16, height = 16}},</v>
       </c>
       <c r="B83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C83" t="s">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F83">
         <v>81</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H83" s="5">
         <v>10.53</v>
@@ -17468,19 +17468,19 @@
         <v>60.8</v>
       </c>
       <c r="AI83" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ83" s="2">
         <v>16</v>
       </c>
       <c r="AK83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL83" s="2">
         <v>16</v>
       </c>
       <c r="AM83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP83">
         <f t="shared" si="22"/>
@@ -17559,7 +17559,7 @@
         <v>16</v>
       </c>
       <c r="BK83" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BL83" t="str">
         <f t="shared" si="28"/>
@@ -17569,25 +17569,25 @@
     <row r="84" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-82", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-82.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 10.66, percent = 63.14 },{ type = "impact", decrese = 10.08, percent = 59.22 },{ type = "poison", decrese = 9.69, percent = 57 },{ type = "explosion", decrese = 10.05, percent = 59.63 },{ type = "fire", decrese = 9.36, percent = 55.12 },{ type = "laser", decrese = 10.8, percent = 61.2 },{ type = "acid", decrese = 10.78, percent = 61.6} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 16, height = 16}},</v>
+        <v>{ type = "armor", name = "cursed-armor-82", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-82.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 10.66, percent = 63.14 },{ type = "impact", decrese = 10.08, percent = 59.22 },{ type = "poison", decrese = 9.69, percent = 57 },{ type = "explosion", decrese = 10.05, percent = 59.63 },{ type = "fire", decrese = 9.36, percent = 55.12 },{ type = "laser", decrese = 10.8, percent = 61.2 },{ type = "acid", decrese = 10.78, percent = 61.6} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 16, height = 16}},</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C84" t="s">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E84" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F84">
         <v>82</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H84" s="5">
         <v>10.66</v>
@@ -17671,19 +17671,19 @@
         <v>61.6</v>
       </c>
       <c r="AI84" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ84" s="2">
         <v>16</v>
       </c>
       <c r="AK84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL84" s="2">
         <v>16</v>
       </c>
       <c r="AM84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP84">
         <f t="shared" si="22"/>
@@ -17762,7 +17762,7 @@
         <v>16</v>
       </c>
       <c r="BK84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BL84" t="str">
         <f t="shared" si="28"/>
@@ -17772,25 +17772,25 @@
     <row r="85" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-83", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-83.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 10.79, percent = 63.91 },{ type = "impact", decrese = 10.24, percent = 60.16 },{ type = "poison", decrese = 9.86, percent = 58 },{ type = "explosion", decrese = 10.2, percent = 60.52 },{ type = "fire", decrese = 9.54, percent = 56.18 },{ type = "laser", decrese = 10.95, percent = 62.05 },{ type = "acid", decrese = 10.92, percent = 62.4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 17, height = 17}},</v>
+        <v>{ type = "armor", name = "cursed-armor-83", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-83.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 10.79, percent = 63.91 },{ type = "impact", decrese = 10.24, percent = 60.16 },{ type = "poison", decrese = 9.86, percent = 58 },{ type = "explosion", decrese = 10.2, percent = 60.52 },{ type = "fire", decrese = 9.54, percent = 56.18 },{ type = "laser", decrese = 10.95, percent = 62.05 },{ type = "acid", decrese = 10.92, percent = 62.4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 17, height = 17}},</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F85">
         <v>83</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H85" s="5">
         <v>10.79</v>
@@ -17874,19 +17874,19 @@
         <v>62.4</v>
       </c>
       <c r="AI85" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ85" s="2">
         <v>17</v>
       </c>
       <c r="AK85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL85" s="2">
         <v>17</v>
       </c>
       <c r="AM85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP85">
         <f t="shared" si="22"/>
@@ -17965,7 +17965,7 @@
         <v>17</v>
       </c>
       <c r="BK85" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BL85" t="str">
         <f t="shared" si="28"/>
@@ -17975,25 +17975,25 @@
     <row r="86" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-84", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-84.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 10.92, percent = 64.68 },{ type = "impact", decrese = 10.4, percent = 61.1 },{ type = "poison", decrese = 10.03, percent = 59 },{ type = "explosion", decrese = 10.35, percent = 61.41 },{ type = "fire", decrese = 9.72, percent = 57.24 },{ type = "laser", decrese = 11.1, percent = 62.9 },{ type = "acid", decrese = 11.06, percent = 63.2} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 17, height = 17}},</v>
+        <v>{ type = "armor", name = "cursed-armor-84", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-84.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 10.92, percent = 64.68 },{ type = "impact", decrese = 10.4, percent = 61.1 },{ type = "poison", decrese = 10.03, percent = 59 },{ type = "explosion", decrese = 10.35, percent = 61.41 },{ type = "fire", decrese = 9.72, percent = 57.24 },{ type = "laser", decrese = 11.1, percent = 62.9 },{ type = "acid", decrese = 11.06, percent = 63.2} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 17, height = 17}},</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C86" t="s">
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F86">
         <v>84</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H86" s="5">
         <v>10.92</v>
@@ -18077,19 +18077,19 @@
         <v>63.2</v>
       </c>
       <c r="AI86" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ86" s="2">
         <v>17</v>
       </c>
       <c r="AK86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL86" s="2">
         <v>17</v>
       </c>
       <c r="AM86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP86">
         <f t="shared" si="22"/>
@@ -18168,7 +18168,7 @@
         <v>17</v>
       </c>
       <c r="BK86" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BL86" t="str">
         <f t="shared" si="28"/>
@@ -18178,25 +18178,25 @@
     <row r="87" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-85", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-85.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 11.05, percent = 65.45 },{ type = "impact", decrese = 10.56, percent = 62.04 },{ type = "poison", decrese = 10.2, percent = 60 },{ type = "explosion", decrese = 10.5, percent = 62.3 },{ type = "fire", decrese = 9.9, percent = 58.3 },{ type = "laser", decrese = 11.25, percent = 63.75 },{ type = "acid", decrese = 11.2, percent = 64} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 17, height = 17}},</v>
+        <v>{ type = "armor", name = "cursed-armor-85", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-85.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 11.05, percent = 65.45 },{ type = "impact", decrese = 10.56, percent = 62.04 },{ type = "poison", decrese = 10.2, percent = 60 },{ type = "explosion", decrese = 10.5, percent = 62.3 },{ type = "fire", decrese = 9.9, percent = 58.3 },{ type = "laser", decrese = 11.25, percent = 63.75 },{ type = "acid", decrese = 11.2, percent = 64} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 17, height = 17}},</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C87" t="s">
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F87">
         <v>85</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87" s="5">
         <v>11.05</v>
@@ -18280,19 +18280,19 @@
         <v>64</v>
       </c>
       <c r="AI87" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ87" s="2">
         <v>17</v>
       </c>
       <c r="AK87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL87" s="2">
         <v>17</v>
       </c>
       <c r="AM87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP87">
         <f t="shared" si="22"/>
@@ -18371,7 +18371,7 @@
         <v>17</v>
       </c>
       <c r="BK87" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BL87" t="str">
         <f t="shared" si="28"/>
@@ -18381,25 +18381,25 @@
     <row r="88" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-86", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-86.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 11.18, percent = 66.22 },{ type = "impact", decrese = 10.72, percent = 62.98 },{ type = "poison", decrese = 10.37, percent = 61 },{ type = "explosion", decrese = 10.65, percent = 63.19 },{ type = "fire", decrese = 10.08, percent = 59.36 },{ type = "laser", decrese = 11.4, percent = 64.6 },{ type = "acid", decrese = 11.34, percent = 64.8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 17, height = 17}},</v>
+        <v>{ type = "armor", name = "cursed-armor-86", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-86.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 11.18, percent = 66.22 },{ type = "impact", decrese = 10.72, percent = 62.98 },{ type = "poison", decrese = 10.37, percent = 61 },{ type = "explosion", decrese = 10.65, percent = 63.19 },{ type = "fire", decrese = 10.08, percent = 59.36 },{ type = "laser", decrese = 11.4, percent = 64.6 },{ type = "acid", decrese = 11.34, percent = 64.8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 17, height = 17}},</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E88" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F88">
         <v>86</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H88" s="5">
         <v>11.18</v>
@@ -18483,19 +18483,19 @@
         <v>64.8</v>
       </c>
       <c r="AI88" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ88" s="2">
         <v>17</v>
       </c>
       <c r="AK88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL88" s="2">
         <v>17</v>
       </c>
       <c r="AM88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP88">
         <f t="shared" si="22"/>
@@ -18574,7 +18574,7 @@
         <v>17</v>
       </c>
       <c r="BK88" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BL88" t="str">
         <f t="shared" si="28"/>
@@ -18584,25 +18584,25 @@
     <row r="89" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-87", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-87.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 11.31, percent = 66.99 },{ type = "impact", decrese = 10.88, percent = 63.92 },{ type = "poison", decrese = 10.54, percent = 62 },{ type = "explosion", decrese = 10.8, percent = 64.08 },{ type = "fire", decrese = 10.26, percent = 60.42 },{ type = "laser", decrese = 11.55, percent = 65.45 },{ type = "acid", decrese = 11.48, percent = 65.6} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 17, height = 17}},</v>
+        <v>{ type = "armor", name = "cursed-armor-87", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-87.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 11.31, percent = 66.99 },{ type = "impact", decrese = 10.88, percent = 63.92 },{ type = "poison", decrese = 10.54, percent = 62 },{ type = "explosion", decrese = 10.8, percent = 64.08 },{ type = "fire", decrese = 10.26, percent = 60.42 },{ type = "laser", decrese = 11.55, percent = 65.45 },{ type = "acid", decrese = 11.48, percent = 65.6} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 17, height = 17}},</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C89" t="s">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F89">
         <v>87</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H89" s="5">
         <v>11.31</v>
@@ -18686,19 +18686,19 @@
         <v>65.599999999999994</v>
       </c>
       <c r="AI89" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ89" s="2">
         <v>17</v>
       </c>
       <c r="AK89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL89" s="2">
         <v>17</v>
       </c>
       <c r="AM89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP89">
         <f t="shared" si="22"/>
@@ -18777,7 +18777,7 @@
         <v>17</v>
       </c>
       <c r="BK89" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BL89" t="str">
         <f t="shared" si="28"/>
@@ -18787,25 +18787,25 @@
     <row r="90" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-88", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-88.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 11.44, percent = 67.76 },{ type = "impact", decrese = 11.04, percent = 64.86 },{ type = "poison", decrese = 10.71, percent = 63 },{ type = "explosion", decrese = 10.95, percent = 64.97 },{ type = "fire", decrese = 10.44, percent = 61.48 },{ type = "laser", decrese = 11.7, percent = 66.3 },{ type = "acid", decrese = 11.62, percent = 66.4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 18, height = 18}},</v>
+        <v>{ type = "armor", name = "cursed-armor-88", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-88.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 11.44, percent = 67.76 },{ type = "impact", decrese = 11.04, percent = 64.86 },{ type = "poison", decrese = 10.71, percent = 63 },{ type = "explosion", decrese = 10.95, percent = 64.97 },{ type = "fire", decrese = 10.44, percent = 61.48 },{ type = "laser", decrese = 11.7, percent = 66.3 },{ type = "acid", decrese = 11.62, percent = 66.4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 18, height = 18}},</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C90" t="s">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F90">
         <v>88</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H90" s="5">
         <v>11.44</v>
@@ -18889,19 +18889,19 @@
         <v>66.400000000000006</v>
       </c>
       <c r="AI90" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ90" s="2">
         <v>18</v>
       </c>
       <c r="AK90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL90" s="2">
         <v>18</v>
       </c>
       <c r="AM90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP90">
         <f t="shared" si="22"/>
@@ -18980,7 +18980,7 @@
         <v>18</v>
       </c>
       <c r="BK90" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BL90" t="str">
         <f t="shared" si="28"/>
@@ -18990,25 +18990,25 @@
     <row r="91" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-89", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-89.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 11.57, percent = 68.53 },{ type = "impact", decrese = 11.2, percent = 65.8 },{ type = "poison", decrese = 10.88, percent = 64 },{ type = "explosion", decrese = 11.1, percent = 65.86 },{ type = "fire", decrese = 10.62, percent = 62.54 },{ type = "laser", decrese = 11.85, percent = 67.15 },{ type = "acid", decrese = 11.76, percent = 67.2} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 18, height = 18}},</v>
+        <v>{ type = "armor", name = "cursed-armor-89", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-89.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 11.57, percent = 68.53 },{ type = "impact", decrese = 11.2, percent = 65.8 },{ type = "poison", decrese = 10.88, percent = 64 },{ type = "explosion", decrese = 11.1, percent = 65.86 },{ type = "fire", decrese = 10.62, percent = 62.54 },{ type = "laser", decrese = 11.85, percent = 67.15 },{ type = "acid", decrese = 11.76, percent = 67.2} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 18, height = 18}},</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C91" t="s">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F91">
         <v>89</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H91" s="5">
         <v>11.57</v>
@@ -19092,19 +19092,19 @@
         <v>67.2</v>
       </c>
       <c r="AI91" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ91" s="2">
         <v>18</v>
       </c>
       <c r="AK91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL91" s="2">
         <v>18</v>
       </c>
       <c r="AM91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP91">
         <f t="shared" si="22"/>
@@ -19183,7 +19183,7 @@
         <v>18</v>
       </c>
       <c r="BK91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BL91" t="str">
         <f t="shared" si="28"/>
@@ -19193,25 +19193,25 @@
     <row r="92" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-90", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-90.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 11.7, percent = 69.3 },{ type = "impact", decrese = 11.36, percent = 66.74 },{ type = "poison", decrese = 11.05, percent = 65 },{ type = "explosion", decrese = 11.25, percent = 66.75 },{ type = "fire", decrese = 10.8, percent = 63.6 },{ type = "laser", decrese = 12, percent = 68 },{ type = "acid", decrese = 11.9, percent = 68} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 18, height = 18}},</v>
+        <v>{ type = "armor", name = "cursed-armor-90", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-90.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 11.7, percent = 69.3 },{ type = "impact", decrese = 11.36, percent = 66.74 },{ type = "poison", decrese = 11.05, percent = 65 },{ type = "explosion", decrese = 11.25, percent = 66.75 },{ type = "fire", decrese = 10.8, percent = 63.6 },{ type = "laser", decrese = 12, percent = 68 },{ type = "acid", decrese = 11.9, percent = 68} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 18, height = 18}},</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C92" t="s">
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F92">
         <v>90</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H92" s="5">
         <v>11.7</v>
@@ -19295,19 +19295,19 @@
         <v>68</v>
       </c>
       <c r="AI92" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ92" s="2">
         <v>18</v>
       </c>
       <c r="AK92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL92" s="2">
         <v>18</v>
       </c>
       <c r="AM92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP92">
         <f t="shared" si="22"/>
@@ -19386,7 +19386,7 @@
         <v>18</v>
       </c>
       <c r="BK92" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BL92" t="str">
         <f t="shared" si="28"/>
@@ -19396,25 +19396,25 @@
     <row r="93" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-91", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-91.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 11.83, percent = 70.07 },{ type = "impact", decrese = 11.52, percent = 67.68 },{ type = "poison", decrese = 11.22, percent = 66 },{ type = "explosion", decrese = 11.4, percent = 67.64 },{ type = "fire", decrese = 10.98, percent = 64.66 },{ type = "laser", decrese = 12.15, percent = 68.85 },{ type = "acid", decrese = 12.04, percent = 68.8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 18, height = 18}},</v>
+        <v>{ type = "armor", name = "cursed-armor-91", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-91.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 11.83, percent = 70.07 },{ type = "impact", decrese = 11.52, percent = 67.68 },{ type = "poison", decrese = 11.22, percent = 66 },{ type = "explosion", decrese = 11.4, percent = 67.64 },{ type = "fire", decrese = 10.98, percent = 64.66 },{ type = "laser", decrese = 12.15, percent = 68.85 },{ type = "acid", decrese = 12.04, percent = 68.8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 18, height = 18}},</v>
       </c>
       <c r="B93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F93">
         <v>91</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H93" s="5">
         <v>11.83</v>
@@ -19498,19 +19498,19 @@
         <v>68.8</v>
       </c>
       <c r="AI93" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ93" s="2">
         <v>18</v>
       </c>
       <c r="AK93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL93" s="2">
         <v>18</v>
       </c>
       <c r="AM93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP93">
         <f t="shared" si="22"/>
@@ -19589,7 +19589,7 @@
         <v>18</v>
       </c>
       <c r="BK93" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BL93" t="str">
         <f t="shared" si="28"/>
@@ -19599,25 +19599,25 @@
     <row r="94" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-92", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-92.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 11.96, percent = 70.84 },{ type = "impact", decrese = 11.68, percent = 68.62 },{ type = "poison", decrese = 11.39, percent = 67 },{ type = "explosion", decrese = 11.55, percent = 68.53 },{ type = "fire", decrese = 11.16, percent = 65.72 },{ type = "laser", decrese = 12.3, percent = 69.7 },{ type = "acid", decrese = 12.18, percent = 69.6} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 18, height = 18}},</v>
+        <v>{ type = "armor", name = "cursed-armor-92", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-92.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 11.96, percent = 70.84 },{ type = "impact", decrese = 11.68, percent = 68.62 },{ type = "poison", decrese = 11.39, percent = 67 },{ type = "explosion", decrese = 11.55, percent = 68.53 },{ type = "fire", decrese = 11.16, percent = 65.72 },{ type = "laser", decrese = 12.3, percent = 69.7 },{ type = "acid", decrese = 12.18, percent = 69.6} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 18, height = 18}},</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C94" t="s">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F94">
         <v>92</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H94" s="5">
         <v>11.96</v>
@@ -19701,19 +19701,19 @@
         <v>69.599999999999994</v>
       </c>
       <c r="AI94" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ94" s="2">
         <v>18</v>
       </c>
       <c r="AK94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL94" s="2">
         <v>18</v>
       </c>
       <c r="AM94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP94">
         <f t="shared" si="22"/>
@@ -19792,7 +19792,7 @@
         <v>18</v>
       </c>
       <c r="BK94" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BL94" t="str">
         <f t="shared" si="28"/>
@@ -19802,25 +19802,25 @@
     <row r="95" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-93", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-93.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 12.09, percent = 71.61 },{ type = "impact", decrese = 11.84, percent = 69.56 },{ type = "poison", decrese = 11.56, percent = 68 },{ type = "explosion", decrese = 11.7, percent = 69.42 },{ type = "fire", decrese = 11.34, percent = 66.78 },{ type = "laser", decrese = 12.45, percent = 70.55 },{ type = "acid", decrese = 12.32, percent = 70.4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 18, height = 18}},</v>
+        <v>{ type = "armor", name = "cursed-armor-93", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-93.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 12.09, percent = 71.61 },{ type = "impact", decrese = 11.84, percent = 69.56 },{ type = "poison", decrese = 11.56, percent = 68 },{ type = "explosion", decrese = 11.7, percent = 69.42 },{ type = "fire", decrese = 11.34, percent = 66.78 },{ type = "laser", decrese = 12.45, percent = 70.55 },{ type = "acid", decrese = 12.32, percent = 70.4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 18, height = 18}},</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C95" t="s">
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F95">
         <v>93</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95" s="5">
         <v>12.09</v>
@@ -19904,19 +19904,19 @@
         <v>70.400000000000006</v>
       </c>
       <c r="AI95" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ95" s="2">
         <v>18</v>
       </c>
       <c r="AK95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL95" s="2">
         <v>18</v>
       </c>
       <c r="AM95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP95">
         <f t="shared" si="22"/>
@@ -19995,7 +19995,7 @@
         <v>18</v>
       </c>
       <c r="BK95" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BL95" t="str">
         <f t="shared" si="28"/>
@@ -20005,25 +20005,25 @@
     <row r="96" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-94", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-94.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 12.22, percent = 72.38 },{ type = "impact", decrese = 12, percent = 70.5 },{ type = "poison", decrese = 11.73, percent = 69 },{ type = "explosion", decrese = 11.85, percent = 70.31 },{ type = "fire", decrese = 11.52, percent = 67.84 },{ type = "laser", decrese = 12.6, percent = 71.4 },{ type = "acid", decrese = 12.46, percent = 71.2} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 19, height = 19}},</v>
+        <v>{ type = "armor", name = "cursed-armor-94", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-94.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 12.22, percent = 72.38 },{ type = "impact", decrese = 12, percent = 70.5 },{ type = "poison", decrese = 11.73, percent = 69 },{ type = "explosion", decrese = 11.85, percent = 70.31 },{ type = "fire", decrese = 11.52, percent = 67.84 },{ type = "laser", decrese = 12.6, percent = 71.4 },{ type = "acid", decrese = 12.46, percent = 71.2} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 19, height = 19}},</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F96">
         <v>94</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H96" s="5">
         <v>12.22</v>
@@ -20107,19 +20107,19 @@
         <v>71.2</v>
       </c>
       <c r="AI96" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ96" s="2">
         <v>19</v>
       </c>
       <c r="AK96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL96" s="2">
         <v>19</v>
       </c>
       <c r="AM96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP96">
         <f t="shared" si="22"/>
@@ -20198,7 +20198,7 @@
         <v>19</v>
       </c>
       <c r="BK96" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BL96" t="str">
         <f t="shared" si="28"/>
@@ -20208,25 +20208,25 @@
     <row r="97" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-95", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-95.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 12.35, percent = 73.15 },{ type = "impact", decrese = 12.16, percent = 71.44 },{ type = "poison", decrese = 11.9, percent = 70 },{ type = "explosion", decrese = 12, percent = 71.2 },{ type = "fire", decrese = 11.7, percent = 68.9 },{ type = "laser", decrese = 12.75, percent = 72.25 },{ type = "acid", decrese = 12.6, percent = 72} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 19, height = 19}},</v>
+        <v>{ type = "armor", name = "cursed-armor-95", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-95.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 12.35, percent = 73.15 },{ type = "impact", decrese = 12.16, percent = 71.44 },{ type = "poison", decrese = 11.9, percent = 70 },{ type = "explosion", decrese = 12, percent = 71.2 },{ type = "fire", decrese = 11.7, percent = 68.9 },{ type = "laser", decrese = 12.75, percent = 72.25 },{ type = "acid", decrese = 12.6, percent = 72} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 19, height = 19}},</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C97" t="s">
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F97">
         <v>95</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H97" s="5">
         <v>12.35</v>
@@ -20310,19 +20310,19 @@
         <v>72</v>
       </c>
       <c r="AI97" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ97" s="2">
         <v>19</v>
       </c>
       <c r="AK97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL97" s="2">
         <v>19</v>
       </c>
       <c r="AM97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP97">
         <f t="shared" si="22"/>
@@ -20401,7 +20401,7 @@
         <v>19</v>
       </c>
       <c r="BK97" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BL97" t="str">
         <f t="shared" si="28"/>
@@ -20411,25 +20411,25 @@
     <row r="98" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-96", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-96.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 12.48, percent = 73.92 },{ type = "impact", decrese = 12.32, percent = 72.38 },{ type = "poison", decrese = 12.07, percent = 71 },{ type = "explosion", decrese = 12.15, percent = 72.09 },{ type = "fire", decrese = 11.88, percent = 69.96 },{ type = "laser", decrese = 12.9, percent = 73.1 },{ type = "acid", decrese = 12.74, percent = 72.8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 19, height = 19}},</v>
+        <v>{ type = "armor", name = "cursed-armor-96", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-96.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 12.48, percent = 73.92 },{ type = "impact", decrese = 12.32, percent = 72.38 },{ type = "poison", decrese = 12.07, percent = 71 },{ type = "explosion", decrese = 12.15, percent = 72.09 },{ type = "fire", decrese = 11.88, percent = 69.96 },{ type = "laser", decrese = 12.9, percent = 73.1 },{ type = "acid", decrese = 12.74, percent = 72.8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 19, height = 19}},</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F98">
         <v>96</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H98" s="5">
         <v>12.48</v>
@@ -20513,19 +20513,19 @@
         <v>72.8</v>
       </c>
       <c r="AI98" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ98" s="2">
         <v>19</v>
       </c>
       <c r="AK98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL98" s="2">
         <v>19</v>
       </c>
       <c r="AM98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP98">
         <f t="shared" si="22"/>
@@ -20604,7 +20604,7 @@
         <v>19</v>
       </c>
       <c r="BK98" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BL98" t="str">
         <f t="shared" si="28"/>
@@ -20614,25 +20614,25 @@
     <row r="99" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-97", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-97.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 12.61, percent = 74.69 },{ type = "impact", decrese = 12.48, percent = 73.32 },{ type = "poison", decrese = 12.24, percent = 72 },{ type = "explosion", decrese = 12.3, percent = 72.98 },{ type = "fire", decrese = 12.06, percent = 71.02 },{ type = "laser", decrese = 13.05, percent = 73.95 },{ type = "acid", decrese = 12.88, percent = 73.6} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 19, height = 19}},</v>
+        <v>{ type = "armor", name = "cursed-armor-97", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-97.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 12.61, percent = 74.69 },{ type = "impact", decrese = 12.48, percent = 73.32 },{ type = "poison", decrese = 12.24, percent = 72 },{ type = "explosion", decrese = 12.3, percent = 72.98 },{ type = "fire", decrese = 12.06, percent = 71.02 },{ type = "laser", decrese = 13.05, percent = 73.95 },{ type = "acid", decrese = 12.88, percent = 73.6} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 19, height = 19}},</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C99" t="s">
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F99">
         <v>97</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H99" s="5">
         <v>12.61</v>
@@ -20716,19 +20716,19 @@
         <v>73.599999999999994</v>
       </c>
       <c r="AI99" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ99" s="2">
         <v>19</v>
       </c>
       <c r="AK99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL99" s="2">
         <v>19</v>
       </c>
       <c r="AM99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP99">
         <f t="shared" si="22"/>
@@ -20807,7 +20807,7 @@
         <v>19</v>
       </c>
       <c r="BK99" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BL99" t="str">
         <f t="shared" si="28"/>
@@ -20817,25 +20817,25 @@
     <row r="100" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-98", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-98.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 12.74, percent = 75.46 },{ type = "impact", decrese = 12.64, percent = 74.26 },{ type = "poison", decrese = 12.41, percent = 73 },{ type = "explosion", decrese = 12.45, percent = 73.87 },{ type = "fire", decrese = 12.24, percent = 72.08 },{ type = "laser", decrese = 13.2, percent = 74.8 },{ type = "acid", decrese = 13.02, percent = 74.4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 19, height = 19}},</v>
+        <v>{ type = "armor", name = "cursed-armor-98", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-98.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 12.74, percent = 75.46 },{ type = "impact", decrese = 12.64, percent = 74.26 },{ type = "poison", decrese = 12.41, percent = 73 },{ type = "explosion", decrese = 12.45, percent = 73.87 },{ type = "fire", decrese = 12.24, percent = 72.08 },{ type = "laser", decrese = 13.2, percent = 74.8 },{ type = "acid", decrese = 13.02, percent = 74.4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 19, height = 19}},</v>
       </c>
       <c r="B100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C100" t="s">
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F100">
         <v>98</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H100" s="5">
         <v>12.74</v>
@@ -20919,19 +20919,19 @@
         <v>74.400000000000006</v>
       </c>
       <c r="AI100" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ100" s="2">
         <v>19</v>
       </c>
       <c r="AK100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL100" s="2">
         <v>19</v>
       </c>
       <c r="AM100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP100">
         <f t="shared" si="22"/>
@@ -21010,7 +21010,7 @@
         <v>19</v>
       </c>
       <c r="BK100" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BL100" t="str">
         <f t="shared" si="28"/>
@@ -21020,25 +21020,25 @@
     <row r="101" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-99", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-99.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 12.87, percent = 76.23 },{ type = "impact", decrese = 12.8, percent = 75.2 },{ type = "poison", decrese = 12.58, percent = 74 },{ type = "explosion", decrese = 12.6, percent = 74.76 },{ type = "fire", decrese = 12.42, percent = 73.14 },{ type = "laser", decrese = 13.35, percent = 75.65 },{ type = "acid", decrese = 13.16, percent = 75.2} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 20, height = 20}},</v>
+        <v>{ type = "armor", name = "cursed-armor-99", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-99.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 12.87, percent = 76.23 },{ type = "impact", decrese = 12.8, percent = 75.2 },{ type = "poison", decrese = 12.58, percent = 74 },{ type = "explosion", decrese = 12.6, percent = 74.76 },{ type = "fire", decrese = 12.42, percent = 73.14 },{ type = "laser", decrese = 13.35, percent = 75.65 },{ type = "acid", decrese = 13.16, percent = 75.2} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 20, height = 20}},</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C101" t="s">
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F101">
         <v>99</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H101" s="5">
         <v>12.87</v>
@@ -21122,19 +21122,19 @@
         <v>75.2</v>
       </c>
       <c r="AI101" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ101" s="2">
         <v>20</v>
       </c>
       <c r="AK101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL101" s="2">
         <v>20</v>
       </c>
       <c r="AM101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP101">
         <f t="shared" si="22"/>
@@ -21213,7 +21213,7 @@
         <v>20</v>
       </c>
       <c r="BK101" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BL101" t="str">
         <f t="shared" si="28"/>
@@ -21223,25 +21223,25 @@
     <row r="102" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-100", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-100.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 13, percent = 77 },{ type = "impact", decrese = 12.96, percent = 76.14 },{ type = "poison", decrese = 12.75, percent = 75 },{ type = "explosion", decrese = 12.75, percent = 75.65 },{ type = "fire", decrese = 12.6, percent = 74.2 },{ type = "laser", decrese = 13.5, percent = 76.5 },{ type = "acid", decrese = 13.3, percent = 76} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 20, height = 20}},</v>
+        <v>{ type = "armor", name = "cursed-armor-100", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-100.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 13, percent = 77 },{ type = "impact", decrese = 12.96, percent = 76.14 },{ type = "poison", decrese = 12.75, percent = 75 },{ type = "explosion", decrese = 12.75, percent = 75.65 },{ type = "fire", decrese = 12.6, percent = 74.2 },{ type = "laser", decrese = 13.5, percent = 76.5 },{ type = "acid", decrese = 13.3, percent = 76} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 20, height = 20}},</v>
       </c>
       <c r="B102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C102" t="s">
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F102">
         <v>100</v>
       </c>
       <c r="G102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H102" s="5">
         <v>13</v>
@@ -21325,19 +21325,19 @@
         <v>76</v>
       </c>
       <c r="AI102" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ102" s="2">
         <v>20</v>
       </c>
       <c r="AK102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL102" s="2">
         <v>20</v>
       </c>
       <c r="AM102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP102">
         <f t="shared" si="22"/>
@@ -21416,7 +21416,7 @@
         <v>20</v>
       </c>
       <c r="BK102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BL102" t="str">
         <f t="shared" si="28"/>
@@ -21426,25 +21426,25 @@
     <row r="103" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-101", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-101.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 13.13, percent = 77.77 },{ type = "impact", decrese = 13.12, percent = 77.08 },{ type = "poison", decrese = 12.92, percent = 76 },{ type = "explosion", decrese = 12.9, percent = 76.54 },{ type = "fire", decrese = 12.78, percent = 75.26 },{ type = "laser", decrese = 13.65, percent = 77.35 },{ type = "acid", decrese = 13.44, percent = 76.8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 20, height = 20}},</v>
+        <v>{ type = "armor", name = "cursed-armor-101", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-101.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 13.13, percent = 77.77 },{ type = "impact", decrese = 13.12, percent = 77.08 },{ type = "poison", decrese = 12.92, percent = 76 },{ type = "explosion", decrese = 12.9, percent = 76.54 },{ type = "fire", decrese = 12.78, percent = 75.26 },{ type = "laser", decrese = 13.65, percent = 77.35 },{ type = "acid", decrese = 13.44, percent = 76.8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 20, height = 20}},</v>
       </c>
       <c r="B103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C103" t="s">
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F103">
         <v>101</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H103" s="5">
         <v>13.13</v>
@@ -21528,19 +21528,19 @@
         <v>76.8</v>
       </c>
       <c r="AI103" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ103" s="2">
         <v>20</v>
       </c>
       <c r="AK103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL103" s="2">
         <v>20</v>
       </c>
       <c r="AM103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP103">
         <f t="shared" si="22"/>
@@ -21619,7 +21619,7 @@
         <v>20</v>
       </c>
       <c r="BK103" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BL103" t="str">
         <f t="shared" si="28"/>
@@ -21629,25 +21629,25 @@
     <row r="104" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-102", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-102.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 13.26, percent = 78.54 },{ type = "impact", decrese = 13.28, percent = 78.02 },{ type = "poison", decrese = 13.09, percent = 77 },{ type = "explosion", decrese = 13.05, percent = 77.43 },{ type = "fire", decrese = 12.96, percent = 76.32 },{ type = "laser", decrese = 13.8, percent = 78.2 },{ type = "acid", decrese = 13.58, percent = 77.6} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 20, height = 20}},</v>
+        <v>{ type = "armor", name = "cursed-armor-102", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-102.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 13.26, percent = 78.54 },{ type = "impact", decrese = 13.28, percent = 78.02 },{ type = "poison", decrese = 13.09, percent = 77 },{ type = "explosion", decrese = 13.05, percent = 77.43 },{ type = "fire", decrese = 12.96, percent = 76.32 },{ type = "laser", decrese = 13.8, percent = 78.2 },{ type = "acid", decrese = 13.58, percent = 77.6} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 20, height = 20}},</v>
       </c>
       <c r="B104" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C104" t="s">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F104">
         <v>102</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H104" s="5">
         <v>13.26</v>
@@ -21731,19 +21731,19 @@
         <v>77.599999999999994</v>
       </c>
       <c r="AI104" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ104" s="2">
         <v>20</v>
       </c>
       <c r="AK104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL104" s="2">
         <v>20</v>
       </c>
       <c r="AM104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP104">
         <f t="shared" si="22"/>
@@ -21822,7 +21822,7 @@
         <v>20</v>
       </c>
       <c r="BK104" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BL104" t="str">
         <f t="shared" si="28"/>
@@ -21832,25 +21832,25 @@
     <row r="105" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-103", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-103.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 13.39, percent = 79.31 },{ type = "impact", decrese = 13.44, percent = 78.96 },{ type = "poison", decrese = 13.26, percent = 78 },{ type = "explosion", decrese = 13.2, percent = 78.32 },{ type = "fire", decrese = 13.14, percent = 77.38 },{ type = "laser", decrese = 13.95, percent = 79.05 },{ type = "acid", decrese = 13.72, percent = 78.4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 20, height = 20}},</v>
+        <v>{ type = "armor", name = "cursed-armor-103", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-103.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 13.39, percent = 79.31 },{ type = "impact", decrese = 13.44, percent = 78.96 },{ type = "poison", decrese = 13.26, percent = 78 },{ type = "explosion", decrese = 13.2, percent = 78.32 },{ type = "fire", decrese = 13.14, percent = 77.38 },{ type = "laser", decrese = 13.95, percent = 79.05 },{ type = "acid", decrese = 13.72, percent = 78.4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 20, height = 20}},</v>
       </c>
       <c r="B105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C105" t="s">
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E105" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F105">
         <v>103</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H105" s="5">
         <v>13.39</v>
@@ -21934,19 +21934,19 @@
         <v>78.400000000000006</v>
       </c>
       <c r="AI105" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ105" s="2">
         <v>20</v>
       </c>
       <c r="AK105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL105" s="2">
         <v>20</v>
       </c>
       <c r="AM105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP105">
         <f t="shared" si="22"/>
@@ -22025,7 +22025,7 @@
         <v>20</v>
       </c>
       <c r="BK105" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BL105" t="str">
         <f t="shared" si="28"/>
@@ -22035,25 +22035,25 @@
     <row r="106" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-104", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-104.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 13.52, percent = 80.08 },{ type = "impact", decrese = 13.6, percent = 79.9 },{ type = "poison", decrese = 13.43, percent = 79 },{ type = "explosion", decrese = 13.35, percent = 79.21 },{ type = "fire", decrese = 13.32, percent = 78.44 },{ type = "laser", decrese = 14.1, percent = 79.9 },{ type = "acid", decrese = 13.86, percent = 79.2} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 20, height = 20}},</v>
+        <v>{ type = "armor", name = "cursed-armor-104", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-104.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 13.52, percent = 80.08 },{ type = "impact", decrese = 13.6, percent = 79.9 },{ type = "poison", decrese = 13.43, percent = 79 },{ type = "explosion", decrese = 13.35, percent = 79.21 },{ type = "fire", decrese = 13.32, percent = 78.44 },{ type = "laser", decrese = 14.1, percent = 79.9 },{ type = "acid", decrese = 13.86, percent = 79.2} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 20, height = 20}},</v>
       </c>
       <c r="B106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C106" t="s">
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F106">
         <v>104</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106" s="5">
         <v>13.52</v>
@@ -22137,19 +22137,19 @@
         <v>79.2</v>
       </c>
       <c r="AI106" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ106" s="2">
         <v>20</v>
       </c>
       <c r="AK106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL106" s="2">
         <v>20</v>
       </c>
       <c r="AM106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP106">
         <f t="shared" si="22"/>
@@ -22228,7 +22228,7 @@
         <v>20</v>
       </c>
       <c r="BK106" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BL106" t="str">
         <f t="shared" si="28"/>
@@ -22238,25 +22238,25 @@
     <row r="107" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-105", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-105.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 13.65, percent = 80.85 },{ type = "impact", decrese = 13.76, percent = 80.84 },{ type = "poison", decrese = 13.6, percent = 80 },{ type = "explosion", decrese = 13.5, percent = 80.1 },{ type = "fire", decrese = 13.5, percent = 79.5 },{ type = "laser", decrese = 14.25, percent = 80.75 },{ type = "acid", decrese = 14, percent = 80} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 21, height = 21}},</v>
+        <v>{ type = "armor", name = "cursed-armor-105", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-105.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 13.65, percent = 80.85 },{ type = "impact", decrese = 13.76, percent = 80.84 },{ type = "poison", decrese = 13.6, percent = 80 },{ type = "explosion", decrese = 13.5, percent = 80.1 },{ type = "fire", decrese = 13.5, percent = 79.5 },{ type = "laser", decrese = 14.25, percent = 80.75 },{ type = "acid", decrese = 14, percent = 80} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 21, height = 21}},</v>
       </c>
       <c r="B107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C107" t="s">
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F107">
         <v>105</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H107" s="5">
         <v>13.65</v>
@@ -22340,19 +22340,19 @@
         <v>80</v>
       </c>
       <c r="AI107" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ107" s="2">
         <v>21</v>
       </c>
       <c r="AK107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL107" s="2">
         <v>21</v>
       </c>
       <c r="AM107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP107">
         <f t="shared" si="22"/>
@@ -22431,7 +22431,7 @@
         <v>21</v>
       </c>
       <c r="BK107" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BL107" t="str">
         <f t="shared" si="28"/>
@@ -22441,25 +22441,25 @@
     <row r="108" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-106", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-106.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 13.78, percent = 81.62 },{ type = "impact", decrese = 13.92, percent = 81.78 },{ type = "poison", decrese = 13.77, percent = 81 },{ type = "explosion", decrese = 13.65, percent = 80.99 },{ type = "fire", decrese = 13.68, percent = 80.56 },{ type = "laser", decrese = 14.4, percent = 81.6 },{ type = "acid", decrese = 14.14, percent = 80.8} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 21, height = 21}},</v>
+        <v>{ type = "armor", name = "cursed-armor-106", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-106.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 13.78, percent = 81.62 },{ type = "impact", decrese = 13.92, percent = 81.78 },{ type = "poison", decrese = 13.77, percent = 81 },{ type = "explosion", decrese = 13.65, percent = 80.99 },{ type = "fire", decrese = 13.68, percent = 80.56 },{ type = "laser", decrese = 14.4, percent = 81.6 },{ type = "acid", decrese = 14.14, percent = 80.8} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 21, height = 21}},</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C108" t="s">
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F108">
         <v>106</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H108" s="5">
         <v>13.78</v>
@@ -22543,19 +22543,19 @@
         <v>80.8</v>
       </c>
       <c r="AI108" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ108" s="2">
         <v>21</v>
       </c>
       <c r="AK108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL108" s="2">
         <v>21</v>
       </c>
       <c r="AM108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP108">
         <f t="shared" si="22"/>
@@ -22634,7 +22634,7 @@
         <v>21</v>
       </c>
       <c r="BK108" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BL108" t="str">
         <f t="shared" si="28"/>
@@ -22644,25 +22644,25 @@
     <row r="109" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-107", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-107.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 13.91, percent = 82.39 },{ type = "impact", decrese = 14.08, percent = 82.72 },{ type = "poison", decrese = 13.94, percent = 82 },{ type = "explosion", decrese = 13.8, percent = 81.88 },{ type = "fire", decrese = 13.86, percent = 81.62 },{ type = "laser", decrese = 14.55, percent = 82.45 },{ type = "acid", decrese = 14.28, percent = 81.6} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 21, height = 21}},</v>
+        <v>{ type = "armor", name = "cursed-armor-107", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-107.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 13.91, percent = 82.39 },{ type = "impact", decrese = 14.08, percent = 82.72 },{ type = "poison", decrese = 13.94, percent = 82 },{ type = "explosion", decrese = 13.8, percent = 81.88 },{ type = "fire", decrese = 13.86, percent = 81.62 },{ type = "laser", decrese = 14.55, percent = 82.45 },{ type = "acid", decrese = 14.28, percent = 81.6} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 21, height = 21}},</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C109" t="s">
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F109">
         <v>107</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H109" s="5">
         <v>13.91</v>
@@ -22746,19 +22746,19 @@
         <v>81.599999999999994</v>
       </c>
       <c r="AI109" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ109" s="2">
         <v>21</v>
       </c>
       <c r="AK109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL109" s="2">
         <v>21</v>
       </c>
       <c r="AM109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP109">
         <f t="shared" si="22"/>
@@ -22837,7 +22837,7 @@
         <v>21</v>
       </c>
       <c r="BK109" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BL109" t="str">
         <f t="shared" si="28"/>
@@ -22847,25 +22847,25 @@
     <row r="110" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-108", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-108.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 14.04, percent = 83.16 },{ type = "impact", decrese = 14.24, percent = 83.66 },{ type = "poison", decrese = 14.11, percent = 83 },{ type = "explosion", decrese = 13.95, percent = 82.77 },{ type = "fire", decrese = 14.04, percent = 82.68 },{ type = "laser", decrese = 14.7, percent = 83.3 },{ type = "acid", decrese = 14.42, percent = 82.4} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 21, height = 21}},</v>
+        <v>{ type = "armor", name = "cursed-armor-108", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-108.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 14.04, percent = 83.16 },{ type = "impact", decrese = 14.24, percent = 83.66 },{ type = "poison", decrese = 14.11, percent = 83 },{ type = "explosion", decrese = 13.95, percent = 82.77 },{ type = "fire", decrese = 14.04, percent = 82.68 },{ type = "laser", decrese = 14.7, percent = 83.3 },{ type = "acid", decrese = 14.42, percent = 82.4} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 21, height = 21}},</v>
       </c>
       <c r="B110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C110" t="s">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E110" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F110">
         <v>108</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H110" s="5">
         <v>14.04</v>
@@ -22949,19 +22949,19 @@
         <v>82.4</v>
       </c>
       <c r="AI110" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ110" s="2">
         <v>21</v>
       </c>
       <c r="AK110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL110" s="2">
         <v>21</v>
       </c>
       <c r="AM110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP110">
         <f t="shared" si="22"/>
@@ -23040,7 +23040,7 @@
         <v>21</v>
       </c>
       <c r="BK110" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BL110" t="str">
         <f t="shared" si="28"/>
@@ -23050,25 +23050,25 @@
     <row r="111" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-109", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-109.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 14.17, percent = 83.93 },{ type = "impact", decrese = 14.4, percent = 84.6 },{ type = "poison", decrese = 14.28, percent = 84 },{ type = "explosion", decrese = 14.1, percent = 83.66 },{ type = "fire", decrese = 14.22, percent = 83.74 },{ type = "laser", decrese = 14.85, percent = 84.15 },{ type = "acid", decrese = 14.56, percent = 83.2} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 21, height = 21}},</v>
+        <v>{ type = "armor", name = "cursed-armor-109", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-109.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 14.17, percent = 83.93 },{ type = "impact", decrese = 14.4, percent = 84.6 },{ type = "poison", decrese = 14.28, percent = 84 },{ type = "explosion", decrese = 14.1, percent = 83.66 },{ type = "fire", decrese = 14.22, percent = 83.74 },{ type = "laser", decrese = 14.85, percent = 84.15 },{ type = "acid", decrese = 14.56, percent = 83.2} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 21, height = 21}},</v>
       </c>
       <c r="B111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C111" t="s">
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F111">
         <v>109</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H111" s="5">
         <v>14.17</v>
@@ -23152,19 +23152,19 @@
         <v>83.2</v>
       </c>
       <c r="AI111" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="AJ111" s="2">
         <v>21</v>
       </c>
       <c r="AK111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL111" s="2">
         <v>21</v>
       </c>
       <c r="AM111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP111">
         <f t="shared" si="22"/>
@@ -23243,7 +23243,7 @@
         <v>21</v>
       </c>
       <c r="BK111" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BL111" t="str">
         <f t="shared" si="28"/>
@@ -23253,25 +23253,25 @@
     <row r="112" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="21"/>
-        <v>{ type = "armor", name = "cursed-armor-110", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-110.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 14.3, percent = 84.7 },{ type = "impact", decrese = 14.56, percent = 85.54 },{ type = "poison", decrese = 14.45, percent = 85 },{ type = "explosion", decrese = 14.25, percent = 84.55 },{ type = "fire", decrese = 14.4, percent = 84.8 },{ type = "laser", decrese = 15, percent = 85 },{ type = "acid", decrese = 14.7, percent = 84} }, durability = 50000,  subgroup = "armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 22, height = 22}},</v>
+        <v>{ type = "armor", name = "cursed-armor-110", icon = "__Cursed-Exp__/graphics/icons/armor/cursed-armor-110.jpg", flags = {"goes-to-main-inventory"}, resistences = { { type = "physical", decrese = 14.3, percent = 84.7 },{ type = "impact", decrese = 14.56, percent = 85.54 },{ type = "poison", decrese = 14.45, percent = 85 },{ type = "explosion", decrese = 14.25, percent = 84.55 },{ type = "fire", decrese = 14.4, percent = 84.8 },{ type = "laser", decrese = 15, percent = 85 },{ type = "acid", decrese = 14.7, percent = 84} }, durability = 50000,  subgroup = "cursed-armor", order = "c[cursed]-b[armor]", stack_size = 1, equipment_grid = {width = 22, height = 22}},</v>
       </c>
       <c r="B112" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C112" t="s">
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F112">
         <v>110</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H112" s="5">
         <v>14.3</v>
@@ -23355,19 +23355,19 @@
         <v>84</v>
       </c>
       <c r="AI112" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ112" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK112" t="s">
         <v>17</v>
       </c>
-      <c r="AJ112" s="2">
-        <v>22</v>
-      </c>
-      <c r="AK112" t="s">
+      <c r="AL112" s="2">
+        <v>22</v>
+      </c>
+      <c r="AM112" t="s">
         <v>18</v>
-      </c>
-      <c r="AL112" s="2">
-        <v>22</v>
-      </c>
-      <c r="AM112" t="s">
-        <v>19</v>
       </c>
       <c r="AP112">
         <f t="shared" si="22"/>
@@ -23446,7 +23446,7 @@
         <v>22</v>
       </c>
       <c r="BK112" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BL112" t="str">
         <f t="shared" si="28"/>
@@ -23455,1205 +23455,1205 @@
     </row>
     <row r="113" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS113" s="2"/>
     </row>
     <row r="114" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS114" s="2"/>
     </row>
     <row r="115" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS115" s="2"/>
     </row>
     <row r="116" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS116" s="2"/>
     </row>
     <row r="117" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS117" s="2"/>
     </row>
     <row r="118" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS118" s="2"/>
     </row>
     <row r="119" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS119" s="2"/>
     </row>
     <row r="120" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS120" s="2"/>
     </row>
     <row r="121" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS121" s="2"/>
     </row>
     <row r="122" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS122" s="2"/>
     </row>
     <row r="123" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS123" s="2"/>
     </row>
     <row r="124" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS124" s="2"/>
     </row>
     <row r="125" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS125" s="2"/>
     </row>
     <row r="126" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS126" s="2"/>
     </row>
     <row r="127" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS127" s="2"/>
     </row>
     <row r="128" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS128" s="2"/>
     </row>
     <row r="129" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS129" s="2"/>
     </row>
     <row r="130" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS130" s="2"/>
     </row>
     <row r="131" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS131" s="2"/>
     </row>
     <row r="132" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS132" s="2"/>
     </row>
     <row r="133" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS133" s="2"/>
     </row>
     <row r="134" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS134" s="2"/>
     </row>
     <row r="135" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS135" s="2"/>
     </row>
     <row r="136" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS136" s="2"/>
     </row>
     <row r="137" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS137" s="2"/>
     </row>
     <row r="138" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS138" s="2"/>
     </row>
     <row r="139" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS139" s="2"/>
     </row>
     <row r="140" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS140" s="2"/>
     </row>
     <row r="141" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS141" s="2"/>
     </row>
     <row r="142" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS142" s="2"/>
     </row>
     <row r="143" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS143" s="2"/>
     </row>
     <row r="144" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS144" s="2"/>
     </row>
     <row r="145" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS145" s="2"/>
     </row>
     <row r="146" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS146" s="2"/>
     </row>
     <row r="147" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS147" s="2"/>
     </row>
     <row r="148" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS148" s="2"/>
     </row>
     <row r="149" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS149" s="2"/>
     </row>
     <row r="150" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS150" s="2"/>
     </row>
     <row r="151" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS151" s="2"/>
     </row>
     <row r="152" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS152" s="2"/>
     </row>
     <row r="153" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS153" s="2"/>
     </row>
     <row r="154" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS154" s="2"/>
     </row>
     <row r="155" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS155" s="2"/>
     </row>
     <row r="156" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS156" s="2"/>
     </row>
     <row r="157" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS157" s="2"/>
     </row>
     <row r="158" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS158" s="2"/>
     </row>
     <row r="159" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS159" s="2"/>
     </row>
     <row r="160" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS160" s="2"/>
     </row>
     <row r="161" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS161" s="2"/>
     </row>
     <row r="162" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS162" s="2"/>
     </row>
     <row r="163" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS163" s="2"/>
     </row>
     <row r="164" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS164" s="2"/>
     </row>
     <row r="165" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS165" s="2"/>
     </row>
     <row r="166" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS166" s="2"/>
     </row>
     <row r="167" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS167" s="2"/>
     </row>
     <row r="168" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS168" s="2"/>
     </row>
     <row r="169" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS169" s="2"/>
     </row>
     <row r="170" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS170" s="2"/>
     </row>
     <row r="171" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS171" s="2"/>
     </row>
     <row r="172" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS172" s="2"/>
     </row>
     <row r="173" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS173" s="2"/>
     </row>
     <row r="174" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS174" s="2"/>
     </row>
     <row r="175" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS175" s="2"/>
     </row>
     <row r="176" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
